--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23070D7F-413A-7541-B2AF-E613B658AE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1449A-47E2-C046-8CA6-76E8648EFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
+    <sheet name="Setting Index" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +34,121 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Config…</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Cluster the CPU/GPU/Mem</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>cpu_cluster = {
+    200000: {'gpu':177000000, 'mem': 165000000},
+    300000: {'gpu':177000000, 'mem': 165000000},
+    400000: {'gpu':177000000, 'mem': 165000000},
+    500000: {'gpu':266000000, 'mem': 275000000},
+    600000: {'gpu':266000000, 'mem': 275000000},
+    700000: {'gpu':350000000, 'mem': 413000000},
+    800000: {'gpu':350000000, 'mem': 413000000},
+    900000: {'gpu':420000000, 'mem': 543000000},
+    1000000: {'gpu':420000000, 'mem': 543000000},
+    1100000: {'gpu':480000000, 'mem': 633000000},
+    1200000: {'gpu':480000000, 'mem': 633000000},
+    1300000: {'gpu':600000000, 'mem': 825000000},
+    1400000: {'gpu':600000000, 'mem': 825000000}
+}</t>
+  </si>
+  <si>
+    <t>Lamp_Default</t>
+  </si>
+  <si>
+    <t>Peak Power(W)</t>
+  </si>
+  <si>
+    <t>Idle_Power(W)</t>
+  </si>
+  <si>
+    <t>Performance(s)</t>
+  </si>
+  <si>
+    <t>On_demand</t>
+  </si>
+  <si>
+    <t>Command ( If available)</t>
+  </si>
+  <si>
+    <t>time run 5 taskset -c 0 ./sssp</t>
+  </si>
+  <si>
+    <t>Chai:SSSP</t>
+  </si>
+  <si>
+    <t>Consumed Power</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perf/Power </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(consumed power)</t>
+    </r>
+  </si>
+  <si>
+    <t>time run 10  taskset -c 0 ./sssp</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Chai:BFS</t>
+  </si>
+  <si>
+    <t>time run 5 taskset -c 0 ./bfs</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>time run 10 taskset -c 0 ./bfs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +496,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>61.3</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>C2*100/D2/G2</f>
+        <v>4.0783034257748776</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>48.290999999999997</v>
+      </c>
+      <c r="E3">
+        <v>6.5</v>
+      </c>
+      <c r="F3">
+        <v>3.8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">E3-F3</f>
+        <v>2.7</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="1">C3*100/D3/G3</f>
+        <v>3.83477635967748</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>90.47</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>3.1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>3.9476385226357595</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>120.8</v>
+      </c>
+      <c r="E5">
+        <v>5.5</v>
+      </c>
+      <c r="F5">
+        <v>3.3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.7627934978928357</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>96.8</v>
+      </c>
+      <c r="E6">
+        <v>6.5</v>
+      </c>
+      <c r="F6">
+        <v>3.7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.6894923258559627</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>193.62</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3.1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.7386174522833961</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>26.754999999999999</v>
+      </c>
+      <c r="E9">
+        <v>4.3</v>
+      </c>
+      <c r="F9">
+        <v>3.4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>20.764550758944335</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>25.925999999999998</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="F10">
+        <v>3.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>24.107073979788638</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>32.69</v>
+      </c>
+      <c r="E11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>3.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>16.994663675605871</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>53.5</v>
+      </c>
+      <c r="E12">
+        <v>4.3</v>
+      </c>
+      <c r="F12">
+        <v>3.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>20.768431983385256</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>52.05</v>
+      </c>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>3.7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>24.015369836695491</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>58.4</v>
+      </c>
+      <c r="E14">
+        <v>4.2</v>
+      </c>
+      <c r="F14">
+        <v>3.3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>19.025875190258745</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78DD24B-16AC-3E47-9E77-C9FA0D36D73E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="78.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1449A-47E2-C046-8CA6-76E8648EFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A8E2D-2D1C-2E4E-907E-689899F96878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Benchmark</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>time run 10 taskset -c 0 ./bfs</t>
+  </si>
+  <si>
+    <t>CPU Driven Gov</t>
+  </si>
+  <si>
+    <t>Mem Driven Gov</t>
+  </si>
+  <si>
+    <t>time run 10 taskset -c 0 ./sssp</t>
+  </si>
+  <si>
+    <t>GPU Driven Gov</t>
+  </si>
+  <si>
+    <t>time run 10  taskset -c 0 ./bfs</t>
   </si>
 </sst>
 </file>
@@ -176,11 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,40 +562,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>61.3</v>
-      </c>
-      <c r="E2">
-        <v>5.5</v>
-      </c>
-      <c r="F2">
-        <v>3.5</v>
-      </c>
-      <c r="G2">
-        <f>E2-F2</f>
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <f>C2*100/D2/G2</f>
-        <v>4.0783034257748776</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>0.06</v>
-      </c>
-    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
@@ -598,11 +582,11 @@
         <v>3.8</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">E3-F3</f>
+        <f t="shared" ref="G3:G11" si="0">E3-F3</f>
         <v>2.7</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">C3*100/D3/G3</f>
+        <f t="shared" ref="H3:H11" si="1">C3*100/D3/G3</f>
         <v>3.83477635967748</v>
       </c>
       <c r="I3" t="s">
@@ -651,33 +635,33 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>120.8</v>
+        <v>96.8</v>
       </c>
       <c r="E5">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3.7627934978928357</v>
+        <v>3.6894923258559627</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -685,27 +669,27 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>96.8</v>
+        <v>193.62</v>
       </c>
       <c r="E6">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>3.6894923258559627</v>
+        <v>5.7386174522833961</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -714,38 +698,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>193.62</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>3.1</v>
-      </c>
-      <c r="G7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>25.925999999999998</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>3.7</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H7">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>5.7386174522833961</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>24.107073979788638</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -753,33 +734,30 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>26.754999999999999</v>
+        <v>32.69</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F9">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>0.89999999999999947</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>20.764550758944335</v>
+        <v>16.994663675605871</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
-      </c>
-      <c r="J9">
-        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -790,10 +768,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>25.925999999999998</v>
+        <v>52.05</v>
       </c>
       <c r="E10">
         <v>4.5</v>
@@ -807,10 +785,10 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>24.107073979788638</v>
+        <v>24.015369836695491</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,126 +799,349 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>32.69</v>
+        <v>58.4</v>
       </c>
       <c r="E11">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.89999999999999947</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>16.994663675605871</v>
+        <v>19.025875190258745</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>53.5</v>
-      </c>
-      <c r="E12">
-        <v>4.3</v>
-      </c>
-      <c r="F12">
-        <v>3.4</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>20.768431983385256</v>
-      </c>
-      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="J12">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>52.05</v>
-      </c>
-      <c r="E13">
-        <v>4.5</v>
-      </c>
-      <c r="F13">
-        <v>3.7</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>24.015369836695491</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>61.3</v>
+      </c>
+      <c r="E14">
+        <v>5.5</v>
+      </c>
+      <c r="F14">
+        <v>3.5</v>
+      </c>
+      <c r="G14">
+        <f>E14-F14</f>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>C14*100/D14/G14</f>
+        <v>4.0783034257748776</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>120.8</v>
+      </c>
+      <c r="E15">
+        <v>5.5</v>
+      </c>
+      <c r="F15">
+        <v>3.3</v>
+      </c>
+      <c r="G15">
+        <f>E15-F15</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H15">
+        <f>C15*100/D15/G15</f>
+        <v>3.7627934978928357</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>26.754999999999999</v>
+      </c>
+      <c r="E17">
+        <v>4.3</v>
+      </c>
+      <c r="F17">
+        <v>3.4</v>
+      </c>
+      <c r="G17">
+        <f>E17-F17</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H17">
+        <f>C17*100/D17/G17</f>
+        <v>20.764550758944335</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>58.4</v>
-      </c>
-      <c r="E14">
-        <v>4.2</v>
-      </c>
-      <c r="F14">
-        <v>3.3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>19.025875190258745</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="D18">
+        <v>53.5</v>
+      </c>
+      <c r="E18">
+        <v>4.3</v>
+      </c>
+      <c r="F18">
+        <v>3.4</v>
+      </c>
+      <c r="G18">
+        <f>E18-F18</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H18">
+        <f>C18*100/D18/G18</f>
+        <v>20.768431983385256</v>
+      </c>
+      <c r="I18" t="s">
         <v>23</v>
       </c>
+      <c r="J18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>58.8</v>
+      </c>
+      <c r="E20">
+        <v>6.3</v>
+      </c>
+      <c r="F20">
+        <v>3.9</v>
+      </c>
+      <c r="G20">
+        <f>E20-F20</f>
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <f>C20*100/D20/G20</f>
+        <v>3.5430839002267578</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>129.9</v>
+      </c>
+      <c r="E21">
+        <v>6.6</v>
+      </c>
+      <c r="F21">
+        <v>3.8</v>
+      </c>
+      <c r="G21">
+        <f>E21-F21</f>
+        <v>2.8</v>
+      </c>
+      <c r="H21">
+        <f>C21*100/D21/G21</f>
+        <v>2.7493676454415485</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>47.18</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>3.7</v>
+      </c>
+      <c r="G23">
+        <f>E23-F23</f>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="H23">
+        <f>C23*100/D23/G23</f>
+        <v>11.775234327163119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>94.55</v>
+      </c>
+      <c r="E24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F24">
+        <v>3.7</v>
+      </c>
+      <c r="G24">
+        <f>E24-F24</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="H24">
+        <f>C24*100/D24/G24</f>
+        <v>15.10916370778877</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A8E2D-2D1C-2E4E-907E-689899F96878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CC085-ACF9-7348-8052-A48C1766DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Benchmark</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>time run 10  taskset -c 0 ./bfs</t>
+  </si>
+  <si>
+    <t>Did't change any state at all</t>
+  </si>
+  <si>
+    <t>Chai : BFS</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,6 +534,7 @@
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="8" width="22.1640625" customWidth="1"/>
     <col min="9" max="9" width="37.1640625" customWidth="1"/>
+    <col min="11" max="11" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -904,7 +911,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -938,7 +945,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -972,7 +979,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -986,7 +993,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1135,6 +1142,80 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>305.47000000000003</v>
+      </c>
+      <c r="E27">
+        <v>4.3</v>
+      </c>
+      <c r="F27">
+        <v>3.6</v>
+      </c>
+      <c r="G27">
+        <f>E27-F27</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="H27">
+        <f>C27*100/D27/G27</f>
+        <v>2.3383170664409416</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>0.34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>174.3</v>
+      </c>
+      <c r="E28">
+        <v>4.2</v>
+      </c>
+      <c r="F28">
+        <v>3.7</v>
+      </c>
+      <c r="G28">
+        <f>E28-F28</f>
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <f>C28*100/D28/G28</f>
+        <v>5.7372346528973033</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CC085-ACF9-7348-8052-A48C1766DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10701C65-CA9F-5948-817E-18E75A2979C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Benchmark</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Chai : BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,8 +856,8 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>61.3</v>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14">
         <v>5.5</v>
@@ -866,9 +869,9 @@
         <f>E14-F14</f>
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="e">
         <f>C14*100/D14/G14</f>
-        <v>4.0783034257748776</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -1,21 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10701C65-CA9F-5948-817E-18E75A2979C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E7894-F61B-EA4E-AA89-37879A049FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
-    <sheet name="Setting Index" sheetId="2" r:id="rId2"/>
+    <sheet name="Plots" sheetId="3" r:id="rId2"/>
+    <sheet name="Setting Index" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Plots!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Plots!$A$2:$A$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Plots!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Plots!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Plots!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Plots!$C$2:$C$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Benchmark</t>
   </si>
@@ -156,14 +194,47 @@
     <t>Chai : BFS</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Multi -CPU</t>
+  </si>
+  <si>
+    <t>Chai : SSSP</t>
+  </si>
+  <si>
+    <t>Ondemand</t>
+  </si>
+  <si>
+    <t>Lamp_CPU</t>
+  </si>
+  <si>
+    <t>Gl-mark2</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>ondemand</t>
+  </si>
+  <si>
+    <t>perrformance</t>
+  </si>
+  <si>
+    <t>Our policy</t>
+  </si>
+  <si>
+    <t>glmark2</t>
+  </si>
+  <si>
+    <t>Out Policy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +246,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,6 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +303,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9E38CE-C3EA-BC43-A448-4F7D308C79A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="2972926"/>
+          <a:ext cx="4826000" cy="2990196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>199023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D480EE3E-ECDF-819C-3AB7-DE5EC45EE1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7035800" y="2840623"/>
+          <a:ext cx="5245100" cy="3249871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,8 +1028,8 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
+      <c r="D14">
+        <v>62</v>
       </c>
       <c r="E14">
         <v>5.5</v>
@@ -869,9 +1041,9 @@
         <f>E14-F14</f>
         <v>2</v>
       </c>
-      <c r="H14" t="e">
+      <c r="H14">
         <f>C14*100/D14/G14</f>
-        <v>#VALUE!</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1218,6 +1390,194 @@
       </c>
       <c r="K28" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>140</v>
+      </c>
+      <c r="E34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F34">
+        <v>3.1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G29:G40" si="2">E34-F34</f>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H29:H36" si="3">C34*100/D34/G34</f>
+        <v>3.5714285714285734</v>
+      </c>
+      <c r="I34">
+        <f>100/D34</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J34">
+        <f>G34</f>
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>87.3</v>
+      </c>
+      <c r="E35">
+        <v>4.3</v>
+      </c>
+      <c r="F35">
+        <v>3.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>7.159221076746852</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I36" si="4">100/D35</f>
+        <v>1.1454753722794959</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J36" si="5">G35</f>
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>69.3</v>
+      </c>
+      <c r="E36">
+        <v>5.4</v>
+      </c>
+      <c r="F36">
+        <v>3.6</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>4.0083373416706749</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>1.4430014430014431</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>7.5</v>
+      </c>
+      <c r="F38">
+        <v>5.2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H38">
+        <f>D38/G38</f>
+        <v>10.434782608695652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>7.2</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H39">
+        <f>D39/G39</f>
+        <v>9.545454545454545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>7.9</v>
+      </c>
+      <c r="F40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="H40">
+        <f>D40/G40</f>
+        <v>8.928571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -1231,6 +1591,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D7D55-9B90-834C-A814-CE0F4FEFC27B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.443001443</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.1454753719999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78DD24B-16AC-3E47-9E77-C9FA0D36D73E}">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,52 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E7894-F61B-EA4E-AA89-37879A049FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C34B18C-8374-4144-95B7-4189B075A59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
     <sheet name="Plots" sheetId="3" r:id="rId2"/>
     <sheet name="Setting Index" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Plots!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Plots!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Plots!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Plots!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Plots!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Plots!$C$2:$C$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>Benchmark</t>
   </si>
@@ -227,7 +190,40 @@
     <t>glmark2</t>
   </si>
   <si>
-    <t>Out Policy</t>
+    <t>Chai: Single CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance </t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>our policy</t>
+  </si>
+  <si>
+    <t>Lamp_CPU_NU0.5_Clus0</t>
+  </si>
+  <si>
+    <t>Lamp_Mem_NU0.5_Clus0</t>
+  </si>
+  <si>
+    <t>Lamp_CPU_NU0.5_Clus1</t>
+  </si>
+  <si>
+    <t>Chai:HSTO</t>
+  </si>
+  <si>
+    <t>Our policy_Perf</t>
+  </si>
+  <si>
+    <t>Our policy_Pow</t>
+  </si>
+  <si>
+    <t>Our Policy_Perf</t>
+  </si>
+  <si>
+    <t>Our Policy_Pow</t>
   </si>
 </sst>
 </file>
@@ -284,10 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,16 +305,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128126</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>70322</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,7 +337,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="2972926"/>
+          <a:off x="12217400" y="1118726"/>
           <a:ext cx="4826000" cy="2990196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -353,16 +349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>199023</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>197694</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -385,8 +381,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7035800" y="2840623"/>
+          <a:off x="12014200" y="4567823"/>
           <a:ext cx="5245100" cy="3249871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>799044</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DD766E-A419-9D33-FAD4-FAA57C2DAA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7009344" y="3708400"/>
+          <a:ext cx="6262155" cy="3860800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,18 +1045,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1155,18 +1195,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1305,18 +1345,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1392,7 +1432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1423,11 +1463,11 @@
         <v>3.1</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G29:G40" si="2">E34-F34</f>
+        <f t="shared" ref="G34:G48" si="2">E34-F34</f>
         <v>0.99999999999999956</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H29:H36" si="3">C34*100/D34/G34</f>
+        <f t="shared" ref="H34:H43" si="3">C34*100/D34/G34</f>
         <v>3.5714285714285734</v>
       </c>
       <c r="I34">
@@ -1439,7 +1479,7 @@
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1467,15 +1507,15 @@
         <v>7.159221076746852</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I36" si="4">100/D35</f>
+        <f t="shared" ref="I35:I43" si="4">100/D35</f>
         <v>1.1454753722794959</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J36" si="5">G35</f>
+        <f t="shared" ref="J35:J43" si="5">G35</f>
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1510,74 +1550,311 @@
         <f t="shared" si="5"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
+      <c r="K36">
+        <f>0.8/1.8</f>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>4.8</v>
+      </c>
+      <c r="F37">
+        <v>3.7</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>5.5432372505543253</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>1.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="E38">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="F38">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <f>D38/G38</f>
-        <v>10.434782608695652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <f>D39/G39</f>
-        <v>9.545454545454545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>7.9</v>
-      </c>
-      <c r="F40">
-        <v>5.0999999999999996</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f>(I36-I39)/I36</f>
+        <v>3.7500000000000075E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G40">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>94.415000000000006</v>
+      </c>
+      <c r="E41">
+        <v>6.1</v>
+      </c>
+      <c r="F41">
+        <v>3.3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>7.565383829748602</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>1.0591537361648042</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>93.18</v>
+      </c>
+      <c r="E42">
+        <v>6.4</v>
+      </c>
+      <c r="F42">
+        <v>3.3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>6.9238172389201607</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>1.0731916720326249</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>116.7</v>
+      </c>
+      <c r="E43">
+        <v>5.7</v>
+      </c>
+      <c r="F43">
+        <v>3.7</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>8.5689802913453299</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>0.85689802913453295</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>7.5</v>
+      </c>
+      <c r="F45">
+        <v>5.2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H45">
+        <f>D45/G45</f>
+        <v>10.434782608695652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H46">
+        <f>D46/G46</f>
+        <v>9.545454545454545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>7.9</v>
+      </c>
+      <c r="F47">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="H40">
-        <f>D40/G40</f>
+      <c r="H47">
+        <f>D47/G47</f>
         <v>8.928571428571427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>7.2</v>
+      </c>
+      <c r="F48">
+        <v>5.2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f>D48/G48</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1592,59 +1869,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D7D55-9B90-834C-A814-CE0F4FEFC27B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="A7" sqref="A7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.71428571399999996</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.443001443</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.1454753719999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1655,18 +1935,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>21</v>
       </c>
       <c r="C8">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1677,15 +1957,132 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3">
         <v>24</v>
       </c>
       <c r="C10">
         <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>1.1053387863380126</v>
+      </c>
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2.0707792342258395</v>
+      </c>
+      <c r="C16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C20">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1.4430014430014431</v>
+      </c>
+      <c r="C21">
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>1.1454753722794959</v>
+      </c>
+      <c r="C23">
+        <v>0.79999999999999982</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C34B18C-8374-4144-95B7-4189B075A59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032870EC-CC95-6F45-80D0-6C028C98CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="5" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
-    <sheet name="Plots" sheetId="3" r:id="rId2"/>
-    <sheet name="Setting Index" sheetId="2" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="4" r:id="rId2"/>
+    <sheet name="Plots" sheetId="3" r:id="rId3"/>
+    <sheet name="Setting Index" sheetId="2" r:id="rId4"/>
+    <sheet name="Cluster0.5" sheetId="5" r:id="rId5"/>
+    <sheet name="adbCluster" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
   <si>
     <t>Benchmark</t>
   </si>
@@ -225,12 +228,2648 @@
   <si>
     <t>Our Policy_Pow</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Newer Set of data collection : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With power monitor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sssp </t>
+  </si>
+  <si>
+    <t>AnTutu</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Mem</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Power-GPU: currently it is the time for power file</t>
+  </si>
+  <si>
+    <t>Power-Mem</t>
+  </si>
+  <si>
+    <t>Power CPU</t>
+  </si>
+  <si>
+    <t>146sec</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Power UX</t>
+  </si>
+  <si>
+    <t>Ondemand*</t>
+  </si>
+  <si>
+    <t>*GPUmight have been non booster</t>
+  </si>
+  <si>
+    <t>487/End</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Odroid_Antutu_Perf</t>
+  </si>
+  <si>
+    <t>Odroid_Antutu_Ondmd_New</t>
+  </si>
+  <si>
+    <t>Our Policies</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>CPU Cluster</t>
+  </si>
+  <si>
+    <t>Mem cluster</t>
+  </si>
+  <si>
+    <t>mem_cluster0 = {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>165000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>00000, 'small':1400000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>206000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1900000, 'small':1400000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>275000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>420</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1800000, 'small':1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>543000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>700000, 'small':1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>413000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>00000, 'small':1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>633000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>600000, 'small':1100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>728000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>500000, 'small':1100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>825000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'cpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>400000, 'small':1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>cpu_adb_cluster05 ={</t>
+  </si>
+  <si>
+    <r>
+      <t>1400000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>933000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1500000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>728000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>165000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>GPU cluster</t>
+  </si>
+  <si>
+    <t>'cpu':2000000</t>
+  </si>
+  <si>
+    <t>'small':1400000</t>
+  </si>
+  <si>
+    <t>'mem':165000</t>
+  </si>
+  <si>
+    <t>'cpu':1700000</t>
+  </si>
+  <si>
+    <t>'small':1200000</t>
+  </si>
+  <si>
+    <t>'mem':543000</t>
+  </si>
+  <si>
+    <t>'mem':633000</t>
+  </si>
+  <si>
+    <t>'small':1000000</t>
+  </si>
+  <si>
+    <t>'cpu':1400000</t>
+  </si>
+  <si>
+    <t>'cpu':1600000</t>
+  </si>
+  <si>
+    <t>'mem':413000</t>
+  </si>
+  <si>
+    <r>
+      <t>1500000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>728000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1600000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>825000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1700000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>543000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1800000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>633000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1900000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>266</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>275000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <t>1200000:{'small':1000000,'gpu':350,'mem':933000},</t>
+  </si>
+  <si>
+    <t>1300000:{'small':1000000,'gpu':350,'mem':6333000},</t>
+  </si>
+  <si>
+    <r>
+      <t>1400000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:825</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <t>Lamp_NU0.5(GPU)</t>
+  </si>
+  <si>
+    <t>Idle : 3.7</t>
+  </si>
+  <si>
+    <t>Lamp_NU0.5(CPU)</t>
+  </si>
+  <si>
+    <r>
+      <t>1700000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>543000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1600000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>825000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1800000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>633000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1900000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1300000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>266</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>275000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1400000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'gpu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'mem'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>165000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Lamp_NU0.5(Mem)</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_Mem0.5</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_CPU0.5</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_GPU0.5</t>
+  </si>
+  <si>
+    <t>cpu_cluster = {</t>
+  </si>
+  <si>
+    <t>{'gpu'</t>
+  </si>
+  <si>
+    <t>'mem'</t>
+  </si>
+  <si>
+    <t>165000}</t>
+  </si>
+  <si>
+    <t>275000}</t>
+  </si>
+  <si>
+    <t>413000}</t>
+  </si>
+  <si>
+    <t>543000}</t>
+  </si>
+  <si>
+    <t>633000}</t>
+  </si>
+  <si>
+    <t>825000}</t>
+  </si>
+  <si>
+    <t>'small'</t>
+  </si>
+  <si>
+    <t>GPU Cluster</t>
+  </si>
+  <si>
+    <t>gpu_cluster = {</t>
+  </si>
+  <si>
+    <t>{'cpu'</t>
+  </si>
+  <si>
+    <t>728000}</t>
+  </si>
+  <si>
+    <t>Mem Cluster</t>
+  </si>
+  <si>
+    <t>mem_cluster = {</t>
+  </si>
+  <si>
+    <t>'cpu'</t>
+  </si>
+  <si>
+    <t>1200000}</t>
+  </si>
+  <si>
+    <t>1400000}</t>
+  </si>
+  <si>
+    <t>1300000}</t>
+  </si>
+  <si>
+    <t>1500000}</t>
+  </si>
+  <si>
+    <t>1600000}</t>
+  </si>
+  <si>
+    <t>1800000}</t>
+  </si>
+  <si>
+    <t>1900000}</t>
+  </si>
+  <si>
+    <t>2000000}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,13 +2892,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -274,7 +2957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,8 +2965,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,18 +3740,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1195,18 +3890,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1345,18 +4040,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1857,21 +4552,321 @@
         <v>11</v>
       </c>
     </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A53:K54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893AD723-47BD-1545-A550-C0EB0A603383}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="12" max="12" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>72963</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7164</v>
+      </c>
+      <c r="D2" s="5">
+        <v>42839</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>19956</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="5">
+        <v>248</v>
+      </c>
+      <c r="J2" s="5">
+        <v>332</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>77729</v>
+      </c>
+      <c r="C3">
+        <v>7204</v>
+      </c>
+      <c r="D3">
+        <v>46424</v>
+      </c>
+      <c r="E3">
+        <v>3183</v>
+      </c>
+      <c r="F3">
+        <v>20918</v>
+      </c>
+      <c r="H3">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>263</v>
+      </c>
+      <c r="J3">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>74017</v>
+      </c>
+      <c r="C4">
+        <v>7084</v>
+      </c>
+      <c r="D4">
+        <v>43447</v>
+      </c>
+      <c r="E4">
+        <v>3111</v>
+      </c>
+      <c r="F4">
+        <v>20375</v>
+      </c>
+      <c r="H4">
+        <v>148</v>
+      </c>
+      <c r="I4">
+        <v>255</v>
+      </c>
+      <c r="J4">
+        <v>335</v>
+      </c>
+      <c r="K4">
+        <v>475</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>6025</v>
+      </c>
+      <c r="D6">
+        <v>39784</v>
+      </c>
+      <c r="E6">
+        <v>2339</v>
+      </c>
+      <c r="F6">
+        <v>17835</v>
+      </c>
+      <c r="H6">
+        <v>154</v>
+      </c>
+      <c r="I6">
+        <v>260</v>
+      </c>
+      <c r="J6">
+        <v>345</v>
+      </c>
+      <c r="K6">
+        <v>484</v>
+      </c>
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>4589</v>
+      </c>
+      <c r="D7">
+        <v>38741</v>
+      </c>
+      <c r="E7">
+        <v>1281</v>
+      </c>
+      <c r="F7">
+        <v>13133</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>315</v>
+      </c>
+      <c r="J7">
+        <v>400</v>
+      </c>
+      <c r="K7">
+        <v>541</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8">
+        <v>4704</v>
+      </c>
+      <c r="D8">
+        <v>36253</v>
+      </c>
+      <c r="E8">
+        <v>2738</v>
+      </c>
+      <c r="F8">
+        <v>17245</v>
+      </c>
+      <c r="H8">
+        <v>153</v>
+      </c>
+      <c r="I8">
+        <v>260</v>
+      </c>
+      <c r="J8">
+        <v>345</v>
+      </c>
+      <c r="K8">
+        <v>491</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D7D55-9B90-834C-A814-CE0F4FEFC27B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C11"/>
     </sheetView>
   </sheetViews>
@@ -2091,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78DD24B-16AC-3E47-9E77-C9FA0D36D73E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2137,4 +5132,1306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A90E022-9ABF-D749-95F8-FA90DDD3D096}">
+  <dimension ref="A2:N31"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>543</v>
+      </c>
+      <c r="D3" s="8">
+        <v>543</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>933</v>
+      </c>
+      <c r="D4" s="8">
+        <v>177</v>
+      </c>
+      <c r="H4">
+        <v>1400000</v>
+      </c>
+      <c r="I4">
+        <v>1000000</v>
+      </c>
+      <c r="J4">
+        <v>933000</v>
+      </c>
+      <c r="K4">
+        <v>350</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>165</v>
+      </c>
+      <c r="D5" s="8">
+        <v>543</v>
+      </c>
+      <c r="H5">
+        <v>1500000</v>
+      </c>
+      <c r="I5">
+        <v>1100000</v>
+      </c>
+      <c r="J5">
+        <v>728000</v>
+      </c>
+      <c r="K5">
+        <v>480</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>543</v>
+      </c>
+      <c r="D6" s="8">
+        <v>350</v>
+      </c>
+      <c r="H6">
+        <v>1600000</v>
+      </c>
+      <c r="I6">
+        <v>1200000</v>
+      </c>
+      <c r="J6">
+        <v>825000</v>
+      </c>
+      <c r="K6">
+        <v>177</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>165</v>
+      </c>
+      <c r="D7" s="8">
+        <v>350</v>
+      </c>
+      <c r="H7">
+        <v>1700000</v>
+      </c>
+      <c r="I7">
+        <v>1200000</v>
+      </c>
+      <c r="J7">
+        <v>543000</v>
+      </c>
+      <c r="K7">
+        <v>350</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>543</v>
+      </c>
+      <c r="D8" s="8">
+        <v>543</v>
+      </c>
+      <c r="H8">
+        <v>1800000</v>
+      </c>
+      <c r="I8">
+        <v>1200000</v>
+      </c>
+      <c r="J8">
+        <v>633000</v>
+      </c>
+      <c r="K8">
+        <v>543</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>165</v>
+      </c>
+      <c r="D9" s="8">
+        <v>177</v>
+      </c>
+      <c r="H9">
+        <v>1900000</v>
+      </c>
+      <c r="I9">
+        <v>1400000</v>
+      </c>
+      <c r="J9">
+        <v>275000</v>
+      </c>
+      <c r="K9">
+        <v>266</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>933</v>
+      </c>
+      <c r="D10" s="8">
+        <v>350</v>
+      </c>
+      <c r="H10">
+        <v>2000000</v>
+      </c>
+      <c r="I10">
+        <v>1400000</v>
+      </c>
+      <c r="J10">
+        <v>165000</v>
+      </c>
+      <c r="K10">
+        <v>177</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>543</v>
+      </c>
+      <c r="D11" s="8">
+        <v>177</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>933</v>
+      </c>
+      <c r="D12" s="8">
+        <v>177</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>543</v>
+      </c>
+      <c r="D13" s="8">
+        <v>350</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>633</v>
+      </c>
+      <c r="D14" s="9">
+        <v>177</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>543</v>
+      </c>
+      <c r="D15" s="9">
+        <v>177</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>165</v>
+      </c>
+      <c r="D16" s="9">
+        <v>543</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>165</v>
+      </c>
+      <c r="D17" s="9">
+        <v>350</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>165</v>
+      </c>
+      <c r="D18" s="9">
+        <v>177</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>165</v>
+      </c>
+      <c r="D19" s="9">
+        <v>543</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>206</v>
+      </c>
+      <c r="D20" s="9">
+        <v>177</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>165</v>
+      </c>
+      <c r="D21" s="9">
+        <v>350</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>165</v>
+      </c>
+      <c r="D22" s="9">
+        <v>177</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>543</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>480</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>420</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>350</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>266</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>177</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6C176B-EC3C-1F44-A352-61231ACE76AF}">
+  <dimension ref="B3:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1200000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>177</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>1000000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <v>165000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6">
+        <v>177</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6">
+        <v>1000000</v>
+      </c>
+      <c r="P6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1300000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>177</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7">
+        <v>1000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7">
+        <v>206000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7">
+        <v>177</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7">
+        <v>1000000</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1300000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>177</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8">
+        <v>1100000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8">
+        <v>275000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8">
+        <v>266</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8">
+        <v>1100000</v>
+      </c>
+      <c r="P8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1400000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9">
+        <v>266</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9">
+        <v>1100000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9">
+        <v>413000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9">
+        <v>350</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9">
+        <v>1200000</v>
+      </c>
+      <c r="P9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1400000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>266</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>1200000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10">
+        <v>543000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10">
+        <v>420</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10">
+        <v>1200000</v>
+      </c>
+      <c r="P10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1500000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>1200000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11">
+        <v>633000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11">
+        <v>480</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11">
+        <v>1300000</v>
+      </c>
+      <c r="P11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1600000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>350</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12">
+        <v>1200000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12">
+        <v>728000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12">
+        <v>480</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12">
+        <v>1400000</v>
+      </c>
+      <c r="P12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1700000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>420</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13">
+        <v>1300000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13">
+        <v>825000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>543</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13">
+        <v>1400000</v>
+      </c>
+      <c r="P13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1700000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>420</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14">
+        <v>1300000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14">
+        <v>933000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14">
+        <v>543</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14">
+        <v>1400000</v>
+      </c>
+      <c r="P14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1800000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15">
+        <v>480</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15">
+        <v>1300000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1900000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>480</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16">
+        <v>1400000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1900000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17">
+        <v>543</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <v>1400000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>543</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>1400000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>2000000</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26">
+        <v>1400000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>543</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>1900000</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27">
+        <v>1400000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>480</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28">
+        <v>1600000</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28">
+        <v>1200000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>420</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>1500000</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29">
+        <v>1200000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>350</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30">
+        <v>1400000</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30">
+        <v>1200000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31">
+        <v>1300000</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31">
+        <v>1100000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32">
+        <v>1200000</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32">
+        <v>1000000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032870EC-CC95-6F45-80D0-6C028C98CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6704162-B38D-A643-BE24-C1AED695D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="5" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="174">
   <si>
     <t>Benchmark</t>
   </si>
@@ -2863,6 +2863,72 @@
   </si>
   <si>
     <t>2000000}</t>
+  </si>
+  <si>
+    <t>Pow GPU</t>
+  </si>
+  <si>
+    <t>Pow CPU</t>
+  </si>
+  <si>
+    <t>Pow UX</t>
+  </si>
+  <si>
+    <t>Pow Mem</t>
+  </si>
+  <si>
+    <t>Lamp_Default(CPU)</t>
+  </si>
+  <si>
+    <t>CPU Small Cluster</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Lamp_Default(Mem)</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_Mem2</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_CPU2</t>
+  </si>
+  <si>
+    <t>Lamp_Default(GPU)</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_GPU2</t>
+  </si>
+  <si>
+    <t>Lamp_Default(CPU)_1</t>
+  </si>
+  <si>
+    <t>adb_cpu_clusterSmall</t>
+  </si>
+  <si>
+    <t>Lamp_Default(CPU)_Small</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_CPU2_Small</t>
+  </si>
+  <si>
+    <t>Odorid_Antutu_CPU2_1</t>
+  </si>
+  <si>
+    <t>glmark</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>glmark2.                .</t>
+  </si>
+  <si>
+    <t>rodinia.                 .</t>
   </si>
 </sst>
 </file>
@@ -2968,17 +3034,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2994,6 +3060,1916 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ondemand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>perrformance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Our policy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71428571399999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.443001443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1454753719999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FE6-A242-9836-F4D95C36A93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ondemand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>perrformance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Our policy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FE6-A242-9836-F4D95C36A93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="75569520"/>
+        <c:axId val="75571456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75569520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75571456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75571456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75569520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="sysDash"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4991506163770347E-2"/>
+          <c:y val="8.8782287822878239E-2"/>
+          <c:w val="0.94500849383622965"/>
+          <c:h val="0.82542406368945576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$B$33:$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>glmark2.                .</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rodinia.                 .</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$B$34:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.821428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3756-A343-BB5D-131394BE0C1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$B$33:$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>glmark2.                .</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rodinia.                 .</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plots!$B$35:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9.0909090909090988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.499999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3756-A343-BB5D-131394BE0C1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1069880480"/>
+        <c:axId val="1069882160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1069880480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069882160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1069882160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" baseline="0"/>
+                  <a:t>Percentage Change Compared to on-demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069880480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42141186108961814"/>
+          <c:y val="0.9155472766317434"/>
+          <c:w val="0.31058804447196908"/>
+          <c:h val="7.2056029153380607E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3088,16 +5064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>799044</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456144</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3120,7 +5096,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7009344" y="3708400"/>
+          <a:off x="13270444" y="5422900"/>
           <a:ext cx="6262155" cy="3860800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3128,6 +5104,78 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB769B6-57E4-EFCF-07A9-1D39EDD39A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F52BB24-D825-2422-C5E1-9A9ED705E814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3432,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3740,18 +5788,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3890,18 +5938,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4040,18 +6088,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -4552,33 +6600,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f>(I36-I39)*100/ I36</f>
+        <v>3.7500000000000075</v>
+      </c>
+    </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -4598,19 +6652,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893AD723-47BD-1545-A550-C0EB0A603383}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="37" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4645,8 +6699,20 @@
       <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -4682,7 +6748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4716,8 +6782,28 @@
       <c r="L3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>9.3470999999999993</v>
+      </c>
+      <c r="S3">
+        <v>6.2972000000000001</v>
+      </c>
+      <c r="T3">
+        <v>10.8339</v>
+      </c>
+      <c r="U3">
+        <v>5.89</v>
+      </c>
+      <c r="V3">
+        <f>(U3-$U$11)*100/($U$11)</f>
+        <v>14.591439688715955</v>
+      </c>
+      <c r="W3">
+        <f>(F3-$F$11)*100/F3</f>
+        <v>1.4771966727220576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4751,13 +6837,33 @@
       <c r="L4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>7.8178014999999998</v>
+      </c>
+      <c r="S4">
+        <v>5.2439200000000001</v>
+      </c>
+      <c r="T4">
+        <v>9.3028150000000007</v>
+      </c>
+      <c r="U4">
+        <v>4.93</v>
+      </c>
+      <c r="V4">
+        <f>(U4-$U$11)*100/($U$11)</f>
+        <v>-4.0856031128404666</v>
+      </c>
+      <c r="W4">
+        <f>(F4-$F$11)*100/F4</f>
+        <v>-1.1484662576687117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -4792,7 +6898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4824,7 +6930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -4854,6 +6960,190 @@
       </c>
       <c r="L8" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10">
+        <v>2457</v>
+      </c>
+      <c r="D10">
+        <v>36382</v>
+      </c>
+      <c r="E10">
+        <v>2933</v>
+      </c>
+      <c r="F10">
+        <v>17675</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>280</v>
+      </c>
+      <c r="J10">
+        <v>365</v>
+      </c>
+      <c r="K10">
+        <v>508</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11">
+        <v>7107</v>
+      </c>
+      <c r="D11">
+        <v>45788</v>
+      </c>
+      <c r="E11">
+        <v>2948</v>
+      </c>
+      <c r="F11">
+        <v>20609</v>
+      </c>
+      <c r="H11">
+        <v>148</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>340</v>
+      </c>
+      <c r="K11">
+        <v>478</v>
+      </c>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="S11">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="T11">
+        <v>8.59</v>
+      </c>
+      <c r="U11">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>6926</v>
+      </c>
+      <c r="D12">
+        <v>44850</v>
+      </c>
+      <c r="E12">
+        <v>2837</v>
+      </c>
+      <c r="F12">
+        <v>20267</v>
+      </c>
+      <c r="H12">
+        <v>145</v>
+      </c>
+      <c r="I12">
+        <v>245</v>
+      </c>
+      <c r="J12">
+        <v>323</v>
+      </c>
+      <c r="K12">
+        <v>456</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13">
+        <v>2637</v>
+      </c>
+      <c r="D13">
+        <v>36603</v>
+      </c>
+      <c r="E13">
+        <v>3001</v>
+      </c>
+      <c r="F13">
+        <v>18082</v>
+      </c>
+      <c r="H13">
+        <v>164</v>
+      </c>
+      <c r="I13">
+        <v>278</v>
+      </c>
+      <c r="J13">
+        <v>365</v>
+      </c>
+      <c r="K13">
+        <v>502</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <v>4104</v>
+      </c>
+      <c r="D14">
+        <v>37007</v>
+      </c>
+      <c r="E14">
+        <v>1997</v>
+      </c>
+      <c r="F14">
+        <v>16060</v>
+      </c>
+      <c r="H14">
+        <v>158</v>
+      </c>
+      <c r="I14">
+        <v>273</v>
+      </c>
+      <c r="J14">
+        <v>358</v>
+      </c>
+      <c r="K14">
+        <v>496</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>D3-D11</f>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>(D4-D11)*100/D4</f>
+        <v>-5.3881740971758694</v>
       </c>
     </row>
   </sheetData>
@@ -4864,15 +7154,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D7D55-9B90-834C-A814-CE0F4FEFC27B}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4940,6 +7231,10 @@
       <c r="C8">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E8">
+        <f>(B8-B10)*100/B8</f>
+        <v>-14.285714285714286</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4951,6 +7246,14 @@
       <c r="C9">
         <v>2.8</v>
       </c>
+      <c r="E9">
+        <f>(B9-B10)*100/B9</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f>(C8-C10)*100/C8</f>
+        <v>-4.545454545454529</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4973,6 +7276,14 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="E11">
+        <f>(B11-B8)*100/B8</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="F11">
+        <f>(C11-C8)*100/C8</f>
+        <v>-9.0909090909090988</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5014,7 +7325,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5025,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5036,7 +7347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5047,7 +7358,7 @@
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -5058,7 +7369,7 @@
         <v>1.8000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -5069,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -5078,6 +7389,82 @@
       </c>
       <c r="C23">
         <v>0.79999999999999982</v>
+      </c>
+      <c r="E23">
+        <f>(B23-B20)*100/B23</f>
+        <v>37.642857142857139</v>
+      </c>
+      <c r="F23">
+        <f>(C23-C20)*100/C23</f>
+        <v>-24.999999999999972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>(B22-B20)*100/B22</f>
+        <v>48.571428571428569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C30">
+        <v>-9.0909090909090988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31">
+        <f>E23/2</f>
+        <v>18.821428571428569</v>
+      </c>
+      <c r="C31">
+        <f>F23/2</f>
+        <v>-12.499999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C34">
+        <v>18.821428571428569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>-9.0909090909090988</v>
+      </c>
+      <c r="C35">
+        <v>-12.499999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -5138,7 +7525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A90E022-9ABF-D749-95F8-FA90DDD3D096}">
   <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:N11"/>
     </sheetView>
   </sheetViews>
@@ -5167,16 +7554,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1.7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>1.2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>543</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>543</v>
       </c>
       <c r="I3" t="s">
@@ -5188,21 +7575,21 @@
       <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1.7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>1.2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>933</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>177</v>
       </c>
       <c r="H4">
@@ -5217,21 +7604,21 @@
       <c r="K4">
         <v>350</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>1.4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>165</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>543</v>
       </c>
       <c r="H5">
@@ -5246,21 +7633,21 @@
       <c r="K5">
         <v>480</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>1.2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>543</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>350</v>
       </c>
       <c r="H6">
@@ -5275,21 +7662,21 @@
       <c r="K6">
         <v>177</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>1.4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>165</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>350</v>
       </c>
       <c r="H7">
@@ -5304,21 +7691,21 @@
       <c r="K7">
         <v>350</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>1.4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>543</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>543</v>
       </c>
       <c r="H8">
@@ -5333,21 +7720,21 @@
       <c r="K8">
         <v>543</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>1.4</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>165</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>177</v>
       </c>
       <c r="H9">
@@ -5362,21 +7749,21 @@
       <c r="K9">
         <v>266</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>1.4</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>933</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>350</v>
       </c>
       <c r="H10">
@@ -5391,248 +7778,248 @@
       <c r="K10">
         <v>177</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>1.7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>1.2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>543</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>177</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>1.4</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>933</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>177</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>1.4</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>543</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>350</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>1.4</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>633</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>177</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>1.4</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>543</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>177</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>1.7</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>1.2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>165</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>543</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>1.7</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>1.2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>165</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>350</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>1.7</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>1.2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>165</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>177</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>1.4</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>165</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>543</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>1.4</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>206</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>177</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>1.4</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>165</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>350</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>1.4</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>165</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>177</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5640,7 +8027,7 @@
       <c r="H25" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5648,13 +8035,13 @@
       <c r="H26">
         <v>543</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5662,13 +8049,13 @@
       <c r="H27">
         <v>480</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5676,13 +8063,13 @@
       <c r="H28">
         <v>420</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5690,13 +8077,13 @@
       <c r="H29">
         <v>350</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5704,13 +8091,13 @@
       <c r="H30">
         <v>266</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5718,13 +8105,13 @@
       <c r="H31">
         <v>177</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5735,13 +8122,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6C176B-EC3C-1F44-A352-61231ACE76AF}">
-  <dimension ref="B3:Q33"/>
+  <dimension ref="B3:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="D19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -5769,7 +8159,7 @@
       <c r="D6">
         <v>177</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F6">
@@ -5790,7 +8180,7 @@
       <c r="M6">
         <v>177</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O6">
@@ -5813,7 +8203,7 @@
       <c r="D7">
         <v>177</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F7">
@@ -5834,7 +8224,7 @@
       <c r="M7">
         <v>177</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O7">
@@ -5857,7 +8247,7 @@
       <c r="D8">
         <v>177</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F8">
@@ -5878,7 +8268,7 @@
       <c r="M8">
         <v>266</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O8">
@@ -5901,7 +8291,7 @@
       <c r="D9">
         <v>266</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F9">
@@ -5922,7 +8312,7 @@
       <c r="M9">
         <v>350</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O9">
@@ -5945,7 +8335,7 @@
       <c r="D10">
         <v>266</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F10">
@@ -5966,7 +8356,7 @@
       <c r="M10">
         <v>420</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O10">
@@ -5989,7 +8379,7 @@
       <c r="D11">
         <v>350</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F11">
@@ -6010,7 +8400,7 @@
       <c r="M11">
         <v>480</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O11">
@@ -6033,7 +8423,7 @@
       <c r="D12">
         <v>350</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F12">
@@ -6054,7 +8444,7 @@
       <c r="M12">
         <v>480</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O12">
@@ -6077,7 +8467,7 @@
       <c r="D13">
         <v>420</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F13">
@@ -6098,7 +8488,7 @@
       <c r="M13">
         <v>543</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O13">
@@ -6121,7 +8511,7 @@
       <c r="D14">
         <v>420</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F14">
@@ -6142,7 +8532,7 @@
       <c r="M14">
         <v>543</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="10" t="s">
         <v>136</v>
       </c>
       <c r="O14">
@@ -6165,7 +8555,7 @@
       <c r="D15">
         <v>480</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F15">
@@ -6191,7 +8581,7 @@
       <c r="D16">
         <v>480</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F16">
@@ -6204,7 +8594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1900000</v>
       </c>
@@ -6214,7 +8604,7 @@
       <c r="D17">
         <v>543</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F17">
@@ -6227,7 +8617,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2000000</v>
       </c>
@@ -6237,7 +8627,7 @@
       <c r="D18">
         <v>543</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F18">
@@ -6250,22 +8640,34 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>600</v>
       </c>
@@ -6275,7 +8677,7 @@
       <c r="D26">
         <v>2000000</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F26">
@@ -6287,8 +8689,29 @@
       <c r="H26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>1000000</v>
+      </c>
+      <c r="M26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26">
+        <v>177</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26">
+        <v>1200000</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>129</v>
+      </c>
+      <c r="R26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>543</v>
       </c>
@@ -6298,7 +8721,7 @@
       <c r="D27">
         <v>1900000</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F27">
@@ -6310,8 +8733,29 @@
       <c r="H27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1100000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27">
+        <v>266</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27">
+        <v>1400000</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>480</v>
       </c>
@@ -6321,7 +8765,7 @@
       <c r="D28">
         <v>1600000</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F28">
@@ -6333,8 +8777,29 @@
       <c r="H28" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1200000</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28">
+        <v>350</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28">
+        <v>1500000</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>129</v>
+      </c>
+      <c r="R28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>420</v>
       </c>
@@ -6344,7 +8809,7 @@
       <c r="D29">
         <v>1500000</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F29">
@@ -6356,8 +8821,29 @@
       <c r="H29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1300000</v>
+      </c>
+      <c r="M29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29">
+        <v>420</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29">
+        <v>1700000</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>350</v>
       </c>
@@ -6367,7 +8853,7 @@
       <c r="D30">
         <v>1400000</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F30">
@@ -6379,8 +8865,29 @@
       <c r="H30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1400000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30">
+        <v>480</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30">
+        <v>1900000</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>129</v>
+      </c>
+      <c r="R30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>266</v>
       </c>
@@ -6390,7 +8897,7 @@
       <c r="D31">
         <v>1300000</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F31">
@@ -6402,8 +8909,11 @@
       <c r="H31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>177</v>
       </c>
@@ -6413,7 +8923,7 @@
       <c r="D32">
         <v>1200000</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F32">

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF70F34-E30B-644D-896D-BEDA9E54FF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11CC7B-7C3B-2740-91AC-DAD2BAC56EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42840" yWindow="-4760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="38400" yWindow="2700" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
   <si>
     <t>Benchmark</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>Eno-Ps</t>
+  </si>
+  <si>
+    <t>Perf/Energy</t>
+  </si>
+  <si>
+    <t>Comparision with LAMP</t>
+  </si>
+  <si>
+    <t>Perf_Score</t>
+  </si>
+  <si>
+    <t>AnTuTu : Mem</t>
   </si>
 </sst>
 </file>
@@ -788,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:K54"/>
     </sheetView>
   </sheetViews>
@@ -1972,22 +1984,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B292E8-9767-8E46-B24F-52C4CE39A8E7}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="2" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="7" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1995,28 +2008,37 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
       <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2027,30 +2049,41 @@
         <v>140</v>
       </c>
       <c r="D3">
+        <v>140</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>D3*C3</f>
+      <c r="F3">
+        <f>E3*D3</f>
         <v>140</v>
       </c>
       <c r="G3">
-        <f>$C$3/C3</f>
+        <f>(1000000/D3)/F3</f>
+        <v>51.020408163265309</v>
+      </c>
+      <c r="H3">
+        <f>($G$7-G3)*100/G3</f>
+        <v>278.08641975308643</v>
+      </c>
+      <c r="J3">
+        <f>$D$3/D3</f>
         <v>1</v>
       </c>
-      <c r="H3">
-        <f>$C$4/C3</f>
+      <c r="K3">
+        <f>$D$4/D3</f>
         <v>0.495</v>
       </c>
-      <c r="I3">
-        <f>$E$3/E3</f>
+      <c r="L3">
+        <f>$F$3/F3</f>
         <v>1</v>
       </c>
-      <c r="J3">
-        <f>$E$6/E3</f>
+      <c r="M3">
+        <f>$F$6/F3</f>
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2058,30 +2091,41 @@
         <v>69.3</v>
       </c>
       <c r="D4">
+        <v>69.3</v>
+      </c>
+      <c r="E4">
         <v>1.8</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E53" si="0">D4*C4</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F53" si="0">E4*D4</f>
         <v>124.74</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="1">$C$3/C4</f>
+        <f t="shared" ref="G4:G46" si="1">(1000000/D4)/F4</f>
+        <v>115.68073136134706</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="2">($G$7-G4)*100/G4</f>
+        <v>66.753124999999983</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="3">$D$3/D4</f>
         <v>2.0202020202020203</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H7" si="2">$C$4/C4</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="4">$D$4/D4</f>
         <v>1</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I7" si="3">$E$3/E4</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="5">$F$3/F4</f>
         <v>1.122334455667789</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J7" si="4">$E$6/E4</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="6">$F$6/F4</f>
         <v>0.78787878787878796</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -2089,30 +2133,41 @@
         <v>126.3</v>
       </c>
       <c r="D5">
+        <v>126.3</v>
+      </c>
+      <c r="E5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>145.24499999999998</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.1084718923198733</v>
+        <v>54.512419523655772</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
+        <v>253.86657986111101</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1.1084718923198733</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
         <v>0.54869358669833723</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
+      <c r="L5">
+        <f t="shared" si="5"/>
         <v>0.96388860201728133</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
+      <c r="M5">
+        <f t="shared" si="6"/>
         <v>0.6766497986161315</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -2120,30 +2175,41 @@
         <v>273</v>
       </c>
       <c r="D6">
+        <v>273</v>
+      </c>
+      <c r="E6">
         <v>0.36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>98.28</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.51282051282051277</v>
+        <v>37.271099542161814</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
+        <v>417.56250000000006</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
         <v>0.25384615384615383</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
+      <c r="L6">
+        <f t="shared" si="5"/>
         <v>1.4245014245014245</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
+      <c r="M6">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -2151,30 +2217,41 @@
         <v>72</v>
       </c>
       <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.9444444444444444</v>
+        <v>192.90123456790124</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.96249999999999991</v>
-      </c>
-      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
         <v>1.9444444444444444</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="4"/>
+        <v>0.96249999999999991</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
         <v>1.365</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -2185,30 +2262,41 @@
         <v>96.9</v>
       </c>
       <c r="D9">
+        <v>96.9</v>
+      </c>
+      <c r="E9">
         <v>2.96</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>286.82400000000001</v>
       </c>
       <c r="G9">
-        <f>$C$9/C9</f>
+        <f t="shared" si="1"/>
+        <v>35.979964858800081</v>
+      </c>
+      <c r="H9">
+        <f>($G$13-G9)*100/G9</f>
+        <v>41.454678907689015</v>
+      </c>
+      <c r="J9">
+        <f>$D$9/D9</f>
         <v>1</v>
       </c>
-      <c r="H9">
-        <f>$C$10/C9</f>
+      <c r="K9">
+        <f>$D$10/D9</f>
         <v>0.88338493292053655</v>
       </c>
-      <c r="I9">
-        <f>$E$9/E9</f>
+      <c r="L9">
+        <f>$F$9/F9</f>
         <v>1</v>
       </c>
-      <c r="J9">
-        <f>$E$12/E9</f>
+      <c r="M9">
+        <f>$F$12/F9</f>
         <v>1.0992106657741334</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -2216,30 +2304,41 @@
         <v>85.6</v>
       </c>
       <c r="D10">
+        <v>85.6</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>256.79999999999995</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G13" si="5">$C$9/C10</f>
+        <f t="shared" si="1"/>
+        <v>45.491600430896447</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H13" si="7">($G$13-G10)*100/G10</f>
+        <v>11.878551820631264</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J13" si="8">$D$9/D10</f>
         <v>1.1320093457943927</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H13" si="6">$C$10/C10</f>
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="9">$D$10/D10</f>
         <v>1</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I13" si="7">$E$9/E10</f>
+      <c r="L10">
+        <f t="shared" ref="L10:L13" si="10">$F$9/F10</f>
         <v>1.1169158878504675</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J13" si="8">$E$12/E10</f>
+      <c r="M10">
+        <f t="shared" ref="M10:M13" si="11">$F$12/F10</f>
         <v>1.2277258566978198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -2247,30 +2346,41 @@
         <v>114.5</v>
       </c>
       <c r="D11">
+        <v>114.5</v>
+      </c>
+      <c r="E11">
         <v>2.7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>309.15000000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>0.84628820960698692</v>
+        <f t="shared" si="1"/>
+        <v>28.250443002259328</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
-        <v>0.74759825327510909</v>
-      </c>
-      <c r="I11">
         <f t="shared" si="7"/>
-        <v>0.92778262979136339</v>
+        <v>80.157683750462397</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
+        <v>0.84628820960698692</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0.74759825327510909</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>0.92778262979136339</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="11"/>
         <v>1.0198285621866408</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>96</v>
       </c>
@@ -2278,30 +2388,41 @@
         <v>563</v>
       </c>
       <c r="D12">
+        <v>563</v>
+      </c>
+      <c r="E12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>315.28000000000003</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
-        <v>0.17211367673179398</v>
+        <f t="shared" si="1"/>
+        <v>5.6337190252494267</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
-        <v>0.15204262877442273</v>
-      </c>
-      <c r="I12">
         <f t="shared" si="7"/>
-        <v>0.9097437198680538</v>
+        <v>803.4057881482945</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
+        <v>0.17211367673179398</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>0.15204262877442273</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>0.9097437198680538</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>97</v>
       </c>
@@ -2309,30 +2430,41 @@
         <v>88.3</v>
       </c>
       <c r="D13">
+        <v>88.3</v>
+      </c>
+      <c r="E13">
         <v>2.52</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>222.51599999999999</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
-        <v>1.0973952434881089</v>
+        <f t="shared" si="1"/>
+        <v>50.895343762114997</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
-        <v>0.9694224235560589</v>
-      </c>
-      <c r="I13">
         <f t="shared" si="7"/>
-        <v>1.2890039367955564</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
+        <v>1.0973952434881089</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>0.9694224235560589</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>1.2890039367955564</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="11"/>
         <v>1.4168868755505224</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2343,30 +2475,41 @@
         <v>29.32</v>
       </c>
       <c r="D15">
+        <v>29.32</v>
+      </c>
+      <c r="E15">
         <v>1.72</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>50.430399999999999</v>
       </c>
       <c r="G15">
-        <f>$C$15/C15</f>
+        <f t="shared" si="1"/>
+        <v>676.30659295696694</v>
+      </c>
+      <c r="H15">
+        <f>($G$19-G15)*100/G15</f>
+        <v>23.642102678579061</v>
+      </c>
+      <c r="J15">
+        <f>$D$15/D15</f>
         <v>1</v>
       </c>
-      <c r="H15">
-        <f>$C$16/C15</f>
+      <c r="K15">
+        <f>$D$16/D15</f>
         <v>0.79740791268758526</v>
       </c>
-      <c r="I15">
-        <f>$E$15/E15</f>
+      <c r="L15">
+        <f>$F$15/F15</f>
         <v>1</v>
       </c>
-      <c r="J15">
-        <f>$E$18/E15</f>
+      <c r="M15">
+        <f>$F$18/F15</f>
         <v>0.59797265141660583</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2374,30 +2517,41 @@
         <v>23.38</v>
       </c>
       <c r="D16">
+        <v>23.38</v>
+      </c>
+      <c r="E16">
         <v>2.4</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>56.111999999999995</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G19" si="9">$C$15/C16</f>
+        <f t="shared" si="1"/>
+        <v>762.25405720393508</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="12">($G$19-G16)*100/G16</f>
+        <v>9.7009171919873616</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="13">$D$15/D16</f>
         <v>1.2540633019674936</v>
       </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H19" si="10">$C$16/C16</f>
+      <c r="K16">
+        <f t="shared" ref="K16:K19" si="14">$D$16/D16</f>
         <v>1</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I19" si="11">$E$15/E16</f>
+      <c r="L16">
+        <f t="shared" ref="L16:L19" si="15">$F$15/F16</f>
         <v>0.89874536641003711</v>
       </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J19" si="12">$E$18/E16</f>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="16">$F$18/F16</f>
         <v>0.53742514970059885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
@@ -2405,30 +2559,41 @@
         <v>32.58</v>
       </c>
       <c r="D17">
+        <v>32.58</v>
+      </c>
+      <c r="E17">
         <v>1.54</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>50.173200000000001</v>
       </c>
       <c r="G17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
+        <v>611.7544247230968</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>36.688785285753902</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="13"/>
         <v>0.899938612645795</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="10"/>
+      <c r="K17">
+        <f t="shared" si="14"/>
         <v>0.71761817065684474</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="11"/>
+      <c r="L17">
+        <f t="shared" si="15"/>
         <v>1.0051262426953034</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="12"/>
+      <c r="M17">
+        <f t="shared" si="16"/>
         <v>0.60103800435292143</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
@@ -2436,30 +2601,41 @@
         <v>71.8</v>
       </c>
       <c r="D18">
+        <v>71.8</v>
+      </c>
+      <c r="E18">
         <v>0.42</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>30.155999999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
+        <v>461.85092856052893</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="12"/>
+        <v>81.054024226404209</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="13"/>
         <v>0.40835654596100279</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="10"/>
+      <c r="K18">
+        <f t="shared" si="14"/>
         <v>0.32562674094707522</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="11"/>
+      <c r="L18">
+        <f t="shared" si="15"/>
         <v>1.6723172834593447</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="12"/>
+      <c r="M18">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
@@ -2467,30 +2643,41 @@
         <v>25.92</v>
       </c>
       <c r="D19">
+        <v>25.92</v>
+      </c>
+      <c r="E19">
         <v>1.78</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>46.137600000000006</v>
       </c>
       <c r="G19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
+        <v>836.1996920858528</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="13"/>
         <v>1.1311728395061729</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="10"/>
+      <c r="K19">
+        <f t="shared" si="14"/>
         <v>0.90200617283950613</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="11"/>
+      <c r="L19">
+        <f t="shared" si="15"/>
         <v>1.0930434179497848</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="12"/>
+      <c r="M19">
+        <f t="shared" si="16"/>
         <v>0.65361007074490207</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2501,30 +2688,41 @@
         <v>72.5</v>
       </c>
       <c r="D21">
+        <v>72.5</v>
+      </c>
+      <c r="E21">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>84.1</v>
       </c>
       <c r="G21">
-        <f>$C$21/C21</f>
+        <f t="shared" si="1"/>
+        <v>164.00836442658576</v>
+      </c>
+      <c r="H21">
+        <f>($G$25-G21)*100/G21</f>
+        <v>121.88986357304674</v>
+      </c>
+      <c r="J21">
+        <f>$D$21/D21</f>
         <v>1</v>
       </c>
-      <c r="H21">
-        <f>$C$22/C21</f>
+      <c r="K21">
+        <f>$D$22/D21</f>
         <v>0.66041379310344828</v>
       </c>
-      <c r="I21">
-        <f>$E$21/E21</f>
+      <c r="L21">
+        <f>$F$21/F21</f>
         <v>1</v>
       </c>
-      <c r="J21">
-        <f>$E$24/E21</f>
+      <c r="M21">
+        <f>$F$24/F21</f>
         <v>1.1223186682520809</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2532,30 +2730,41 @@
         <v>47.88</v>
       </c>
       <c r="D22">
+        <v>47.88</v>
+      </c>
+      <c r="E22">
         <v>1.2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>57.456000000000003</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G25" si="13">$C$21/C22</f>
+        <f t="shared" si="1"/>
+        <v>363.50506824938515</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H25" si="17">($G$25-G22)*100/G22</f>
+        <v>0.11357966125194281</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J25" si="18">$D$21/D22</f>
         <v>1.5142021720969088</v>
       </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H25" si="14">$C$22/C22</f>
+      <c r="K22">
+        <f t="shared" ref="K22:K25" si="19">$D$22/D22</f>
         <v>1</v>
       </c>
-      <c r="I22">
-        <f t="shared" ref="I22:I24" si="15">$E$21/E22</f>
+      <c r="L22">
+        <f t="shared" ref="L22:L24" si="20">$F$21/F22</f>
         <v>1.4637287663603451</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J25" si="16">$E$24/E22</f>
+      <c r="M22">
+        <f t="shared" ref="M22:M25" si="21">$F$24/F22</f>
         <v>1.6427701197438038</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
@@ -2563,30 +2772,41 @@
         <v>69.790000000000006</v>
       </c>
       <c r="D23">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="E23">
         <v>1.02</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>71.185800000000015</v>
       </c>
       <c r="G23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
+        <v>201.28593605571484</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="17"/>
+        <v>80.79650431901311</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="18"/>
         <v>1.0388307780484309</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="14"/>
+      <c r="K23">
+        <f t="shared" si="19"/>
         <v>0.68605817452357065</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="15"/>
+      <c r="L23">
+        <f t="shared" si="20"/>
         <v>1.1814153946433135</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="16"/>
+      <c r="M23">
+        <f t="shared" si="21"/>
         <v>1.3259245523685901</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
@@ -2594,30 +2814,41 @@
         <v>255.1</v>
       </c>
       <c r="D24">
+        <v>255.1</v>
+      </c>
+      <c r="E24">
         <v>0.37</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>94.387</v>
       </c>
       <c r="G24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
+        <v>41.531475311757788</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="17"/>
+        <v>776.24610814513801</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="18"/>
         <v>0.28420227361818895</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="14"/>
+      <c r="K24">
+        <f t="shared" si="19"/>
         <v>0.18769110152881224</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="15"/>
+      <c r="L24">
+        <f t="shared" si="20"/>
         <v>0.89101253350567333</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="16"/>
+      <c r="M24">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
@@ -2625,30 +2856,41 @@
         <v>52.16</v>
       </c>
       <c r="D25">
+        <v>52.16</v>
+      </c>
+      <c r="E25">
         <v>1.01</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>52.681599999999996</v>
       </c>
       <c r="G25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
+        <v>363.91793607453644</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="18"/>
         <v>1.3899539877300615</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="14"/>
+      <c r="K25">
+        <f t="shared" si="19"/>
         <v>0.9179447852760737</v>
       </c>
-      <c r="I25">
-        <f>$E$21/E25</f>
+      <c r="L25">
+        <f>$F$21/F25</f>
         <v>1.5963827977889813</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="16"/>
+      <c r="M25">
+        <f t="shared" si="21"/>
         <v>1.7916502156350607</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2656,131 +2898,197 @@
         <v>28</v>
       </c>
       <c r="C28">
+        <v>7204</v>
+      </c>
+      <c r="D28">
         <v>148</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.12</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>609.76</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f>(C28/F28)</f>
+        <v>11.814484387299922</v>
+      </c>
+      <c r="H28">
+        <f>($G$32-G28)*100/G28</f>
+        <v>-8.249994046447739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29">
+        <v>7084</v>
+      </c>
+      <c r="D29">
         <v>145</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.64</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>817.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" ref="G29:G53" si="22">(C29/F29)</f>
+        <v>8.6622646123746634</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H32" si="23">($G$32-G29)*100/G29</f>
+        <v>25.13806277914631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D32">
         <v>148</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4.43</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>655.64</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="22"/>
+        <v>10.839790128729181</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C35">
+        <v>3111</v>
+      </c>
+      <c r="D35">
         <v>107</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.54</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>164.78</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="22"/>
+        <v>18.879718412428694</v>
+      </c>
+      <c r="H35">
+        <f>($G$39-G35)*100/G35</f>
+        <v>12.254778329995297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C36">
+        <v>3183</v>
+      </c>
+      <c r="D36">
         <v>118</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>2.59</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>305.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="22"/>
+        <v>10.414894313199397</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H39" si="24">($G$39-G36)*100/G36</f>
+        <v>103.49112929873455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
+        <v>2948</v>
+      </c>
+      <c r="D39">
         <v>107</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.3</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>139.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="22"/>
+        <v>21.193386053199138</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2788,70 +3096,114 @@
         <v>28</v>
       </c>
       <c r="C42">
+        <v>43447</v>
+      </c>
+      <c r="D42">
         <v>80</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>5.6</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="22"/>
+        <v>96.979910714285708</v>
+      </c>
+      <c r="H42">
+        <f>($G$46-G42)*100/G42</f>
+        <v>13.590525671922993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C43">
+        <v>46424</v>
+      </c>
+      <c r="D43">
         <v>82</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>7.13</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>584.66</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="22"/>
+        <v>79.403413949988035</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H46" si="25">($G$46-G43)*100/G43</f>
+        <v>38.734576885954297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C45">
+        <v>28129</v>
+      </c>
+      <c r="D45">
         <v>91</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>2.9</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>263.89999999999998</v>
       </c>
-      <c r="F45">
+      <c r="G45">
+        <f t="shared" si="22"/>
+        <v>106.58961727927246</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="25"/>
+        <v>3.349644354094651</v>
+      </c>
+      <c r="I45">
         <v>30188</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
+        <v>45788</v>
+      </c>
+      <c r="D46">
         <v>85</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>415.65</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="22"/>
+        <v>110.15999037651871</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2859,59 +3211,103 @@
         <v>28</v>
       </c>
       <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
         <v>341</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>750.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f>(1000*C50/F50)</f>
+        <v>27.992535323913621</v>
+      </c>
+      <c r="H50">
+        <f>($G$53-G50)*100/G50</f>
+        <v>-3.4988422948289126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>39</v>
       </c>
       <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
         <v>337</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2.8</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>943.59999999999991</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" ref="G51:G53" si="26">(1000*C51/F51)</f>
+        <v>26.494277236117</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:H53" si="27">($G$53-G51)*100/G51</f>
+        <v>1.9583226138410021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>96</v>
       </c>
       <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
         <v>348</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.8</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>626.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="26"/>
+        <v>19.157088122605366</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="27"/>
+        <v>41.00848983792126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>97</v>
       </c>
       <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53">
         <v>338</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>777.4</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="26"/>
+        <v>27.013120658605608</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +3320,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11CC7B-7C3B-2740-91AC-DAD2BAC56EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098B729-05F1-7843-8438-E8E2F8680D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2700" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
   <si>
     <t>Benchmark</t>
   </si>
@@ -406,6 +406,27 @@
   </si>
   <si>
     <t>AnTuTu : Mem</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>coCap</t>
+  </si>
+  <si>
+    <t>CoCap</t>
+  </si>
+  <si>
+    <t>Pow-Eff</t>
+  </si>
+  <si>
+    <t>PowEff</t>
+  </si>
+  <si>
+    <t>Norm_Perf_Score</t>
   </si>
 </sst>
 </file>
@@ -798,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A1E52C-6EF9-A04F-A62B-2AB7DCD6CD38}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:K54"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,12 +831,12 @@
     <col min="2" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" customWidth="1"/>
-    <col min="11" max="11" width="50" customWidth="1"/>
+    <col min="6" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" customWidth="1"/>
+    <col min="12" max="12" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,14 +861,15 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -874,14 +896,14 @@
         <f t="shared" ref="H3:H11" si="1">C3*100/D3/G3</f>
         <v>3.83477635967748</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -908,14 +930,14 @@
         <f t="shared" si="1"/>
         <v>3.9476385226357595</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -942,14 +964,14 @@
         <f t="shared" si="1"/>
         <v>3.6894923258559627</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -976,14 +998,14 @@
         <f t="shared" si="1"/>
         <v>5.7386174522833961</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1010,11 +1032,11 @@
         <f t="shared" si="1"/>
         <v>24.107073979788638</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1041,11 +1063,11 @@
         <f t="shared" si="1"/>
         <v>16.994663675605871</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1072,11 +1094,11 @@
         <f t="shared" si="1"/>
         <v>24.015369836695491</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1103,11 +1125,11 @@
         <f t="shared" si="1"/>
         <v>19.025875190258745</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1120,8 +1142,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1148,14 +1171,14 @@
         <f>C14*100/D14/G14</f>
         <v>4.032258064516129</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1182,14 +1205,14 @@
         <f>C15*100/D15/G15</f>
         <v>3.7627934978928357</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>13</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1216,14 +1239,14 @@
         <f>C17*100/D17/G17</f>
         <v>20.764550758944335</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1250,14 +1273,14 @@
         <f>C18*100/D18/G18</f>
         <v>20.768431983385256</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>18</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1270,8 +1293,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1298,14 +1322,14 @@
         <f>C20*100/D20/G20</f>
         <v>3.5430839002267578</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1332,14 +1356,14 @@
         <f>C21*100/D21/G21</f>
         <v>2.7493676454415485</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>21</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1366,14 +1390,14 @@
         <f>C23*100/D23/G23</f>
         <v>11.775234327163119</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1400,14 +1424,14 @@
         <f>C24*100/D24/G24</f>
         <v>15.10916370778877</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1420,8 +1444,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1448,17 +1473,17 @@
         <f>C27*100/D27/G27</f>
         <v>2.3383170664409416</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>9</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.34</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1485,28 +1510,28 @@
         <f>C28*100/D28/G28</f>
         <v>5.7372346528973033</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>16</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.3</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>2</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1534,15 +1559,19 @@
         <v>3.5714285714285734</v>
       </c>
       <c r="I34">
+        <f>J34/$J$36</f>
+        <v>0.495</v>
+      </c>
+      <c r="J34">
         <f>100/D34</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f>G34</f>
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1570,15 +1599,19 @@
         <v>7.159221076746852</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I43" si="4">100/D35</f>
+        <f t="shared" ref="I35:I39" si="4">J35/$J$36</f>
+        <v>0.79381443298969068</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J43" si="5">100/D35</f>
         <v>1.1454753722794959</v>
       </c>
-      <c r="J35">
-        <f t="shared" ref="J35:J43" si="5">G35</f>
+      <c r="K35">
+        <f t="shared" ref="K35:K43" si="6">G35</f>
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1607,18 +1640,22 @@
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>1.4430014430014431</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
+        <v>1.4430014430014431</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
         <v>1.8000000000000003</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f>0.8/1.8</f>
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -1644,14 +1681,18 @@
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>1.2195121951219512</v>
+        <v>0.84512195121951217</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
         <v>1.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>42</v>
       </c>
@@ -1677,14 +1718,18 @@
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>0.98039215686274506</v>
+        <v>0.67941176470588227</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -1710,24 +1755,28 @@
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>1.3888888888888888</v>
+        <v>0.96249999999999991</v>
       </c>
       <c r="J39">
         <f t="shared" si="5"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K39">
-        <f>(I36-I39)/I36</f>
+      <c r="L39">
+        <f>(J36-J39)/J36</f>
         <v>3.7500000000000075E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1754,16 +1803,16 @@
         <f t="shared" si="3"/>
         <v>7.565383829748602</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>1.0591537361648042</v>
-      </c>
       <c r="J41">
         <f t="shared" si="5"/>
+        <v>1.0591537361648042</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -1787,16 +1836,16 @@
         <f t="shared" si="3"/>
         <v>6.9238172389201607</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>1.0731916720326249</v>
-      </c>
       <c r="J42">
         <f t="shared" si="5"/>
+        <v>1.0731916720326249</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -1820,16 +1869,16 @@
         <f t="shared" si="3"/>
         <v>8.5689802913453299</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="4"/>
-        <v>0.85689802913453295</v>
-      </c>
       <c r="J43">
         <f t="shared" si="5"/>
+        <v>0.85689802913453295</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1854,7 +1903,7 @@
         <v>10.434782608695652</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -1876,7 +1925,7 @@
         <v>9.545454545454545</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1947,7 @@
         <v>8.928571428571427</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1920,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>96</v>
       </c>
@@ -1931,13 +1980,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I51">
-        <f>(I36-I39)*100/ I36</f>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f>(J36-J39)*100/ J36</f>
         <v>3.7500000000000075</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
@@ -1951,8 +2000,9 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1964,18 +2014,19 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A53:K54"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A53:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1984,23 +2035,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B292E8-9767-8E46-B24F-52C4CE39A8E7}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="2" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="44.5" customWidth="1"/>
-    <col min="7" max="8" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
+    <col min="8" max="9" width="44.5" customWidth="1"/>
+    <col min="10" max="12" width="25.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2008,37 +2061,46 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2046,1268 +2108,1965 @@
         <v>28</v>
       </c>
       <c r="C3">
+        <f>D3/$D$5</f>
+        <v>0.90214285714285714</v>
+      </c>
+      <c r="D3">
+        <f>$E$5/E3</f>
+        <v>0.90214285714285714</v>
+      </c>
+      <c r="E3">
         <v>140</v>
       </c>
-      <c r="D3">
-        <v>140</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <f>E3*D3</f>
-        <v>140</v>
-      </c>
-      <c r="G3">
-        <f>(1000000/D3)/F3</f>
-        <v>51.020408163265309</v>
-      </c>
       <c r="H3">
-        <f>($G$7-G3)*100/G3</f>
-        <v>278.08641975308643</v>
+        <f>F3*E3</f>
+        <v>574</v>
       </c>
       <c r="J3">
-        <f>$D$3/D3</f>
+        <f>(1000000/E3)/H3</f>
+        <v>12.444001991040318</v>
+      </c>
+      <c r="K3">
+        <f>J3/$J$5</f>
+        <v>0.84363716401194622</v>
+      </c>
+      <c r="L3">
+        <f>($J$7-J3)*100/J3</f>
+        <v>244.47873799725653</v>
+      </c>
+      <c r="N3">
+        <f>$E$3/E3</f>
         <v>1</v>
       </c>
-      <c r="K3">
-        <f>$D$4/D3</f>
+      <c r="O3">
+        <f>$E$4/E3</f>
         <v>0.495</v>
       </c>
-      <c r="L3">
-        <f>$F$3/F3</f>
+      <c r="P3">
+        <f>$H$3/H3</f>
         <v>1</v>
       </c>
-      <c r="M3">
-        <f>$F$6/F3</f>
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <f>$H$6/H3</f>
+        <v>1.0273170731707317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">D4/$D$5</f>
+        <v>1.8225108225108226</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="1">$E$5/E4</f>
+        <v>1.8225108225108226</v>
+      </c>
+      <c r="E4">
         <v>69.3</v>
       </c>
-      <c r="D4">
-        <v>69.3</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>5.4</v>
+      </c>
+      <c r="G4">
         <v>1.8</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F53" si="0">E4*D4</f>
-        <v>124.74</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G46" si="1">(1000000/D4)/F4</f>
-        <v>115.68073136134706</v>
-      </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="2">($G$7-G4)*100/G4</f>
-        <v>66.753124999999983</v>
+        <f>F4*E4</f>
+        <v>374.22</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="3">$D$3/D4</f>
+        <f>(1000000/E4)/H4</f>
+        <v>38.560243787115681</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K8" si="2">J4/$J$5</f>
+        <v>2.614179484670105</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="3">($J$7-J4)*100/J4</f>
+        <v>11.168749999999992</v>
+      </c>
+      <c r="N4">
+        <f>$E$3/E4</f>
         <v>2.0202020202020203</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K7" si="4">$D$4/D4</f>
+      <c r="O4">
+        <f>$E$4/E4</f>
         <v>1</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L7" si="5">$F$3/F4</f>
-        <v>1.122334455667789</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M7" si="6">$F$6/F4</f>
-        <v>0.78787878787878796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <f>$H$3/H4</f>
+        <v>1.5338570894126449</v>
+      </c>
+      <c r="Q4">
+        <f>$H$6/H4</f>
+        <v>1.5757575757575759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>101</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>126.3</v>
       </c>
-      <c r="D5">
-        <v>126.3</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <v>4.25</v>
+      </c>
+      <c r="G5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>145.24499999999998</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>54.512419523655772</v>
-      </c>
       <c r="H5">
+        <f>F5*E5</f>
+        <v>536.77499999999998</v>
+      </c>
+      <c r="J5">
+        <f>(1000000/E5)/H5</f>
+        <v>14.750419400518618</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>253.86657986111101</v>
-      </c>
-      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="3"/>
+        <v>190.61506558641972</v>
+      </c>
+      <c r="N5">
+        <f>$E$3/E5</f>
         <v>1.1084718923198733</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
+      <c r="O5">
+        <f>$E$4/E5</f>
         <v>0.54869358669833723</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>0.96388860201728133</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>0.6766497986161315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f>$H$3/H5</f>
+        <v>1.0693493549438777</v>
+      </c>
+      <c r="Q5">
+        <f>$H$6/H5</f>
+        <v>1.0985608495179546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>96</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.4626373626373626</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.4626373626373626</v>
+      </c>
+      <c r="E6">
         <v>273</v>
       </c>
-      <c r="D6">
-        <v>273</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>2.16</v>
+      </c>
+      <c r="G6">
         <v>0.36</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <f>F6*E6</f>
+        <v>589.68000000000006</v>
+      </c>
+      <c r="J6">
+        <f>(1000000/E6)/H6</f>
+        <v>6.2118499236936344</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0.42113039331445917</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>590.08333333333337</v>
+      </c>
+      <c r="N6">
+        <f>$E$3/E6</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="O6">
+        <f>$E$4/E6</f>
+        <v>0.25384615384615383</v>
+      </c>
+      <c r="P6">
+        <f>$H$3/H6</f>
+        <v>0.97340930674263992</v>
+      </c>
+      <c r="Q6">
+        <f>$H$6/H6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>98.28</v>
-      </c>
-      <c r="G6">
+        <v>1.7541666666666667</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>37.271099542161814</v>
-      </c>
-      <c r="H6">
+        <v>1.7541666666666667</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>4.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>F7*E7</f>
+        <v>324</v>
+      </c>
+      <c r="J7">
+        <f>(1000000/E7)/H7</f>
+        <v>42.866941015089161</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>417.56250000000006</v>
-      </c>
-      <c r="J6">
+        <v>2.9061506558641974</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>$E$3/E7</f>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="O7">
+        <f>$E$4/E7</f>
+        <v>0.96249999999999991</v>
+      </c>
+      <c r="P7">
+        <f>$H$3/H7</f>
+        <v>1.771604938271605</v>
+      </c>
+      <c r="Q7">
+        <f>$H$6/H7</f>
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.4618055555555556</v>
+      </c>
+      <c r="E8">
+        <f>72*1.2</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F8">
+        <v>4.7</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <f>F8*E8</f>
+        <v>406.08</v>
+      </c>
+      <c r="I8">
+        <f>(H8-H7)*100/H8</f>
+        <v>20.212765957446805</v>
+      </c>
+      <c r="J8">
+        <f>(1000000/E8)/H8</f>
+        <v>28.50195546216035</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1.9322810211863015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <f>C3*1.19</f>
+        <v>1.07355</v>
+      </c>
+      <c r="D9">
+        <f>D3*1.19</f>
+        <v>1.07355</v>
+      </c>
+      <c r="F9">
+        <f>0.88+3.5</f>
+        <v>4.38</v>
+      </c>
+      <c r="G9">
+        <f>G3*0.875</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <f>$E$13/E11</f>
+        <v>1.1816305469556243</v>
+      </c>
+      <c r="E11">
+        <v>96.9</v>
+      </c>
+      <c r="F11">
+        <v>6.1</v>
+      </c>
+      <c r="G11">
+        <v>2.96</v>
+      </c>
+      <c r="H11">
+        <f>F11*E11</f>
+        <v>591.09</v>
+      </c>
+      <c r="J11">
+        <f>(1000000/E11)/H11</f>
+        <v>17.459130488860367</v>
+      </c>
+      <c r="K11">
+        <f>J11/$J$13</f>
+        <v>1.3046933233020153</v>
+      </c>
+      <c r="L11">
+        <f>($J$15-J11)*100/J11</f>
+        <v>36.038621381944161</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N16" si="4">$E$11/E11</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O16" si="5">$E$12/E11</f>
+        <v>0.88338493292053655</v>
+      </c>
+      <c r="P11">
+        <f>$H$11/H11</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>$H$14/H11</f>
+        <v>2.2478471975502878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D16" si="6">$E$13/E12</f>
+        <v>1.3376168224299065</v>
+      </c>
+      <c r="E12">
+        <v>85.6</v>
+      </c>
+      <c r="F12">
+        <v>6.4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f>F12*E12</f>
+        <v>547.84</v>
+      </c>
+      <c r="J12">
+        <f>(1000000/E12)/H12</f>
+        <v>21.324187701982705</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="7">J12/$J$13</f>
+        <v>1.5935229613735369</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L16" si="8">($J$15-J12)*100/J12</f>
+        <v>11.381313812539595</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="4"/>
-        <v>0.25384615384615383</v>
-      </c>
-      <c r="L6">
+        <v>1.1320093457943927</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="5"/>
-        <v>1.4245014245014245</v>
-      </c>
-      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>$H$11/H12</f>
+        <v>1.0789464077102804</v>
+      </c>
+      <c r="Q12">
+        <f>$H$14/H12</f>
+        <v>2.4253066588785042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E13">
+        <v>114.5</v>
+      </c>
+      <c r="F13">
+        <v>5.7</v>
+      </c>
+      <c r="G13">
+        <v>2.7</v>
+      </c>
+      <c r="H13">
+        <f>F13*E13</f>
+        <v>652.65</v>
+      </c>
+      <c r="J13">
+        <f>(1000000/E13)/H13</f>
+        <v>13.381788790543894</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>77.488681028233316</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.84628820960698692</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0.74759825327510909</v>
+      </c>
+      <c r="P13">
+        <f>$H$11/H13</f>
+        <v>0.90567685589519664</v>
+      </c>
+      <c r="Q13">
+        <f>$H$14/H13</f>
+        <v>2.0358231824101738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>0.2033747779751332</v>
+      </c>
+      <c r="E14">
+        <v>563</v>
+      </c>
+      <c r="F14">
+        <v>2.36</v>
+      </c>
+      <c r="G14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H14">
+        <f>F14*E14</f>
+        <v>1328.6799999999998</v>
+      </c>
+      <c r="J14">
+        <f>(1000000/E14)/H14</f>
+        <v>1.3368146839574913</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>9.9898055849016079E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>1676.6980500249788</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.17211367673179398</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.15204262877442273</v>
+      </c>
+      <c r="P14">
+        <f>$H$11/H14</f>
+        <v>0.44487009663726412</v>
+      </c>
+      <c r="Q14">
+        <f>$H$14/H14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="C7">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>72</v>
-      </c>
-      <c r="E7">
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>1.2967157417893544</v>
+      </c>
+      <c r="E15">
+        <v>88.3</v>
+      </c>
+      <c r="F15">
+        <v>5.4</v>
+      </c>
+      <c r="G15">
+        <v>2.52</v>
+      </c>
+      <c r="H15">
+        <f>F15*E15</f>
+        <v>476.82</v>
+      </c>
+      <c r="J15">
+        <f>(1000000/E15)/H15</f>
+        <v>23.751160422320332</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>1.7748868102823332</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>1.0973952434881089</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0.9694224235560589</v>
+      </c>
+      <c r="P15">
+        <f>$H$11/H15</f>
+        <v>1.2396501824587896</v>
+      </c>
+      <c r="Q15">
+        <f>$H$14/H15</f>
+        <v>2.7865441885826936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>1.2142099681866385</v>
+      </c>
+      <c r="E16">
+        <v>94.3</v>
+      </c>
+      <c r="F16">
+        <v>5.6</v>
+      </c>
+      <c r="G16">
+        <v>2.7</v>
+      </c>
+      <c r="H16">
+        <f>F16*E16</f>
+        <v>528.07999999999993</v>
+      </c>
+      <c r="I16">
+        <f>(H16-H15)*100/H16</f>
+        <v>9.7068625965762649</v>
+      </c>
+      <c r="J16">
+        <f>(1000000/E16)/H16</f>
+        <v>20.081150338254933</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>1.5006327369660082</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>18.275895664572403</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>1.0275715800636269</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0.90774125132555672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <f>D11*1</f>
+        <v>1.1816305469556243</v>
+      </c>
+      <c r="F17">
+        <v>5.2</v>
+      </c>
+      <c r="G17">
+        <f>G11*0.74</f>
+        <v>2.1903999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19">
+        <f>$E$21/E19</f>
+        <v>1.1111869031377899</v>
+      </c>
+      <c r="E19">
+        <v>29.32</v>
+      </c>
+      <c r="F19">
+        <v>4.22</v>
+      </c>
+      <c r="G19">
+        <v>1.72</v>
+      </c>
+      <c r="H19">
+        <f>F19*E19</f>
+        <v>123.73039999999999</v>
+      </c>
+      <c r="J19">
+        <f>(1000000/E19)/H19</f>
+        <v>275.65102840900073</v>
+      </c>
+      <c r="K19">
+        <f>J19/$J$21</f>
+        <v>1.3283656291517729</v>
+      </c>
+      <c r="L19">
+        <f>($J$23-J19)*100/J19</f>
+        <v>23.281036752736352</v>
+      </c>
+      <c r="N19">
+        <f>$E$19/E19</f>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>192.90123456790124</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="O19">
+        <f>$E$20/E19</f>
+        <v>0.79740791268758526</v>
+      </c>
+      <c r="P19">
+        <f>$H$19/H19</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f>$H$22/H19</f>
+        <v>1.2882525232279216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20">
+        <f t="shared" ref="D20:D24" si="9">$E$21/E20</f>
+        <v>1.3934987168520103</v>
+      </c>
+      <c r="E20">
+        <v>23.38</v>
+      </c>
+      <c r="F20">
+        <v>5.4</v>
+      </c>
+      <c r="G20">
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <f>F20*E20</f>
+        <v>126.25200000000001</v>
+      </c>
+      <c r="J20">
+        <f>(1000000/E20)/H20</f>
+        <v>338.77958097952666</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K24" si="10">J20/$J$21</f>
+        <v>1.632582885066967</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L23" si="11">($J$23-J20)*100/J20</f>
+        <v>0.30871537760490475</v>
+      </c>
+      <c r="N20">
+        <f>$E$19/E20</f>
+        <v>1.2540633019674936</v>
+      </c>
+      <c r="O20">
+        <f>$E$20/E20</f>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f>$H$19/H20</f>
+        <v>0.98002724709311517</v>
+      </c>
+      <c r="Q20">
+        <f>$H$22/H20</f>
+        <v>1.2625225738998194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>32.58</v>
+      </c>
+      <c r="F21">
+        <v>4.54</v>
+      </c>
+      <c r="G21">
+        <v>1.54</v>
+      </c>
+      <c r="H21">
+        <f>F21*E21</f>
+        <v>147.91319999999999</v>
+      </c>
+      <c r="J21">
+        <f>(1000000/E21)/H21</f>
+        <v>207.51141279153507</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>63.762291948531455</v>
+      </c>
+      <c r="N21">
+        <f>$E$19/E21</f>
+        <v>0.899938612645795</v>
+      </c>
+      <c r="O21">
+        <f>$E$20/E21</f>
+        <v>0.71761817065684474</v>
+      </c>
+      <c r="P21">
+        <f>$H$19/H21</f>
+        <v>0.83650681615974776</v>
+      </c>
+      <c r="Q21">
+        <f>$H$22/H21</f>
+        <v>1.0776320166151501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>0.45376044568245127</v>
+      </c>
+      <c r="E22">
+        <v>71.8</v>
+      </c>
+      <c r="F22">
+        <f>0.42+1.8</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.42</v>
+      </c>
+      <c r="H22">
+        <f>F22*E22</f>
+        <v>159.39600000000002</v>
+      </c>
+      <c r="J22">
+        <f>(1000000/E22)/H22</f>
+        <v>87.377202700640595</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>0.42107179323394273</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="11"/>
+        <v>288.91774414712927</v>
+      </c>
+      <c r="N22">
+        <f>$E$19/E22</f>
+        <v>0.40835654596100279</v>
+      </c>
+      <c r="O22">
+        <f>$E$20/E22</f>
+        <v>0.32562674094707522</v>
+      </c>
+      <c r="P22">
+        <f>$H$19/H22</f>
+        <v>0.77624532610605024</v>
+      </c>
+      <c r="Q22">
+        <f>$H$22/H22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>1.2569444444444442</v>
+      </c>
+      <c r="E23">
+        <v>25.92</v>
+      </c>
+      <c r="F23">
+        <f>1.78+2.6</f>
+        <v>4.38</v>
+      </c>
+      <c r="G23">
+        <v>1.78</v>
+      </c>
+      <c r="H23">
+        <f>F23*E23</f>
+        <v>113.5296</v>
+      </c>
+      <c r="J23">
+        <f>(1000000/E23)/H23</f>
+        <v>339.82544564219592</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>1.6376229194853147</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.96249999999999991</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>1.365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="N23">
+        <f>$E$19/E23</f>
+        <v>1.1311728395061729</v>
+      </c>
+      <c r="O23">
+        <f>$E$20/E23</f>
+        <v>0.90200617283950613</v>
+      </c>
+      <c r="P23">
+        <f>$H$19/H23</f>
+        <v>1.0898514572411071</v>
+      </c>
+      <c r="Q23">
+        <f>$H$22/H23</f>
+        <v>1.4040038897344835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>1.1123402163225171</v>
+      </c>
+      <c r="E24">
+        <f>25.92*1.13</f>
+        <v>29.2896</v>
+      </c>
+      <c r="F24">
+        <f>4.38*1.1</f>
+        <v>4.8180000000000005</v>
+      </c>
+      <c r="G24">
+        <f>4.38*1.1</f>
+        <v>4.8180000000000005</v>
+      </c>
+      <c r="H24">
+        <f>F24*E24</f>
+        <v>141.1172928</v>
+      </c>
+      <c r="I24">
+        <f>(H24-H23)*100/H23</f>
+        <v>24.3</v>
+      </c>
+      <c r="J24">
+        <f>(1000000/E24)/H24</f>
+        <v>241.93924607337081</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>1.1659081436471246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <f>D19*(0.92)</f>
+        <v>1.0222919508867667</v>
+      </c>
+      <c r="F25">
+        <v>3.63</v>
+      </c>
+      <c r="G25">
+        <f>G19*0.6</f>
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
-        <v>96.9</v>
-      </c>
-      <c r="D9">
-        <v>96.9</v>
-      </c>
-      <c r="E9">
-        <v>2.96</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>286.82400000000001</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>35.979964858800081</v>
-      </c>
-      <c r="H9">
-        <f>($G$13-G9)*100/G9</f>
-        <v>41.454678907689015</v>
-      </c>
-      <c r="J9">
-        <f>$D$9/D9</f>
+      <c r="C27" s="2"/>
+      <c r="D27">
+        <f>$E$29/E27</f>
+        <v>0.96262068965517245</v>
+      </c>
+      <c r="E27">
+        <v>72.5</v>
+      </c>
+      <c r="F27">
+        <f>1.16+2.4</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="G27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H27">
+        <f>F27*E27</f>
+        <v>258.09999999999997</v>
+      </c>
+      <c r="J27">
+        <f>(1000000/E27)/H27</f>
+        <v>53.440927734505479</v>
+      </c>
+      <c r="K27">
+        <f>J27/$J$29</f>
+        <v>1.0203436183248944</v>
+      </c>
+      <c r="L27">
+        <f>($J$31-J27)*100/J27</f>
+        <v>95.949305792132506</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N32" si="12">$E$27/E27</f>
         <v>1</v>
       </c>
-      <c r="K9">
-        <f>$D$10/D9</f>
-        <v>0.88338493292053655</v>
-      </c>
-      <c r="L9">
-        <f>$F$9/F9</f>
+      <c r="O27">
+        <f t="shared" ref="O27:O32" si="13">$E$28/E27</f>
+        <v>0.66041379310344828</v>
+      </c>
+      <c r="P27">
+        <f>$H$27/H27</f>
         <v>1</v>
       </c>
-      <c r="M9">
-        <f>$F$12/F9</f>
-        <v>1.0992106657741334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="Q27">
+        <f>$H$30/H27</f>
+        <v>2.1447772181325071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>85.6</v>
-      </c>
-      <c r="D10">
-        <v>85.6</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>256.79999999999995</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>45.491600430896447</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H13" si="7">($G$13-G10)*100/G10</f>
-        <v>11.878551820631264</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J13" si="8">$D$9/D10</f>
-        <v>1.1320093457943927</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K13" si="9">$D$10/D10</f>
+      <c r="C28" s="2"/>
+      <c r="D28">
+        <f t="shared" ref="D28:D32" si="14">$E$29/E28</f>
+        <v>1.4576023391812867</v>
+      </c>
+      <c r="E28">
+        <v>47.88</v>
+      </c>
+      <c r="F28">
+        <f>1.2+3</f>
+        <v>4.2</v>
+      </c>
+      <c r="G28">
+        <v>1.2</v>
+      </c>
+      <c r="H28">
+        <f>F28*E28</f>
+        <v>201.09600000000003</v>
+      </c>
+      <c r="J28">
+        <f>(1000000/E28)/H28</f>
+        <v>103.85859092839574</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K32" si="15">J28/$J$29</f>
+        <v>1.982964273907641</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L32" si="16">($J$31-J28)*100/J28</f>
+        <v>0.82663934544890616</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>1.5142021720969088</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L13" si="10">$F$9/F10</f>
-        <v>1.1169158878504675</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M13" si="11">$F$12/F10</f>
-        <v>1.2277258566978198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="P28">
+        <f>$H$27/H28</f>
+        <v>1.2834666030154749</v>
+      </c>
+      <c r="Q28">
+        <f>$H$30/H28</f>
+        <v>2.7527499303815088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C11">
-        <v>114.5</v>
-      </c>
-      <c r="D11">
-        <v>114.5</v>
-      </c>
-      <c r="E11">
-        <v>2.7</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>309.15000000000003</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>28.250443002259328</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="7"/>
-        <v>80.157683750462397</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>0.84628820960698692</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="9"/>
-        <v>0.74759825327510909</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="10"/>
-        <v>0.92778262979136339</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="11"/>
-        <v>1.0198285621866408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="F29">
+        <f>1.02+2.9</f>
+        <v>3.92</v>
+      </c>
+      <c r="G29">
+        <v>1.02</v>
+      </c>
+      <c r="H29">
+        <f>F29*E29</f>
+        <v>273.57679999999999</v>
+      </c>
+      <c r="J29">
+        <f>(1000000/E29)/H29</f>
+        <v>52.37542213694622</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="16"/>
+        <v>99.935623680195675</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>1.0388307780484309</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="13"/>
+        <v>0.68605817452357065</v>
+      </c>
+      <c r="P29">
+        <f>$H$27/H29</f>
+        <v>0.94342795149296277</v>
+      </c>
+      <c r="Q29">
+        <f>$H$30/H29</f>
+        <v>2.0234427773115264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C12">
-        <v>563</v>
-      </c>
-      <c r="D12">
-        <v>563</v>
-      </c>
-      <c r="E12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>315.28000000000003</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>5.6337190252494267</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="7"/>
-        <v>803.4057881482945</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>0.17211367673179398</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="9"/>
-        <v>0.15204262877442273</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="10"/>
-        <v>0.9097437198680538</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="11"/>
+      <c r="C30" s="2"/>
+      <c r="D30">
+        <f t="shared" si="14"/>
+        <v>0.2735789886319091</v>
+      </c>
+      <c r="E30">
+        <v>255.1</v>
+      </c>
+      <c r="F30">
+        <f>0.37+1.8</f>
+        <v>2.17</v>
+      </c>
+      <c r="G30">
+        <v>0.37</v>
+      </c>
+      <c r="H30">
+        <f>F30*E30</f>
+        <v>553.56700000000001</v>
+      </c>
+      <c r="J30">
+        <f>(1000000/E30)/H30</f>
+        <v>7.0814036245854286</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="15"/>
+        <v>0.13520470739251811</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="16"/>
+        <v>1378.7622970830055</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="12"/>
+        <v>0.28420227361818895</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="13"/>
+        <v>0.18769110152881224</v>
+      </c>
+      <c r="P30">
+        <f>$H$27/H30</f>
+        <v>0.46624889128145275</v>
+      </c>
+      <c r="Q30">
+        <f>$H$30/H30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C13">
-        <v>88.3</v>
-      </c>
-      <c r="D13">
-        <v>88.3</v>
-      </c>
-      <c r="E13">
-        <v>2.52</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>222.51599999999999</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>50.895343762114997</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
+      <c r="C31" s="2"/>
+      <c r="D31">
+        <f t="shared" si="14"/>
+        <v>1.3379984662576689</v>
+      </c>
+      <c r="E31">
+        <v>52.16</v>
+      </c>
+      <c r="F31">
+        <f>1.01+2.5</f>
+        <v>3.51</v>
+      </c>
+      <c r="G31">
+        <v>1.01</v>
+      </c>
+      <c r="H31">
+        <f>F31*E31</f>
+        <v>183.08159999999998</v>
+      </c>
+      <c r="J31">
+        <f>(1000000/E31)/H31</f>
+        <v>104.71712690463869</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="15"/>
+        <v>1.9993562368019566</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>1.0973952434881089</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="9"/>
-        <v>0.9694224235560589</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="10"/>
-        <v>1.2890039367955564</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="11"/>
-        <v>1.4168868755505224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="N31">
+        <f t="shared" si="12"/>
+        <v>1.3899539877300615</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="13"/>
+        <v>0.9179447852760737</v>
+      </c>
+      <c r="P31">
+        <f>$H$27/H31</f>
+        <v>1.4097539020851904</v>
+      </c>
+      <c r="Q31">
+        <f>$H$30/H31</f>
+        <v>3.0236080523657214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="14"/>
+        <v>1.285267034990792</v>
+      </c>
+      <c r="E32">
+        <v>54.3</v>
+      </c>
+      <c r="F32">
+        <v>3.48</v>
+      </c>
+      <c r="G32">
+        <v>1.01</v>
+      </c>
+      <c r="H32">
+        <f>F32*E32</f>
+        <v>188.964</v>
+      </c>
+      <c r="I32">
+        <f>(H32-H31)*100/H32</f>
+        <v>3.1129738997904459</v>
+      </c>
+      <c r="J32">
+        <f>(1000000/E32)/H32</f>
+        <v>97.458808352438197</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="15"/>
+        <v>1.8607737059877489</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="16"/>
+        <v>7.4475757244562137</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="12"/>
+        <v>1.3351749539594844</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="13"/>
+        <v>0.88176795580110512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <f>D27*1.19</f>
+        <v>1.1455186206896553</v>
+      </c>
+      <c r="F33">
+        <v>3.42</v>
+      </c>
+      <c r="G33">
+        <f>G27*0.8</f>
+        <v>0.92799999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f>F34*E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>29.32</v>
-      </c>
-      <c r="D15">
-        <v>29.32</v>
-      </c>
-      <c r="E15">
-        <v>1.72</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>50.430399999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>676.30659295696694</v>
-      </c>
-      <c r="H15">
-        <f>($G$19-G15)*100/G15</f>
-        <v>23.642102678579061</v>
-      </c>
-      <c r="J15">
-        <f>$D$15/D15</f>
+      <c r="C35" s="2"/>
+      <c r="D35">
+        <v>7048</v>
+      </c>
+      <c r="E35">
+        <v>148</v>
+      </c>
+      <c r="F35">
+        <v>7.95</v>
+      </c>
+      <c r="G35">
+        <v>7.95</v>
+      </c>
+      <c r="H35">
+        <f>F35*E35</f>
+        <v>1176.6000000000001</v>
+      </c>
+      <c r="J35">
+        <f>(D35/H35)</f>
+        <v>5.9901410844807064</v>
+      </c>
+      <c r="K35">
+        <f>J35/$J$36</f>
+        <v>1.1212805736288496</v>
+      </c>
+      <c r="L35">
+        <f>($J$39-J35)*100/J35</f>
+        <v>-0.41551808010377561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36">
+        <v>7204</v>
+      </c>
+      <c r="E36">
+        <v>145</v>
+      </c>
+      <c r="F36">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G36">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H36">
+        <f>F36*E36</f>
+        <v>1348.5</v>
+      </c>
+      <c r="J36">
+        <f>(D36/H36)</f>
+        <v>5.3422321097515759</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K39" si="17">J36/$J$36</f>
         <v>1</v>
       </c>
-      <c r="K15">
-        <f>$D$16/D15</f>
-        <v>0.79740791268758526</v>
-      </c>
-      <c r="L15">
-        <f>$F$15/F15</f>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f>$F$18/F15</f>
-        <v>0.59797265141660583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>23.38</v>
-      </c>
-      <c r="D16">
-        <v>23.38</v>
-      </c>
-      <c r="E16">
-        <v>2.4</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>56.111999999999995</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>762.25405720393508</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H19" si="12">($G$19-G16)*100/G16</f>
-        <v>9.7009171919873616</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J19" si="13">$D$15/D16</f>
-        <v>1.2540633019674936</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16:K19" si="14">$D$16/D16</f>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16:L19" si="15">$F$15/F16</f>
-        <v>0.89874536641003711</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16:M19" si="16">$F$18/F16</f>
-        <v>0.53742514970059885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="L36">
+        <f t="shared" ref="L36:L39" si="18">($J$39-J36)*100/J36</f>
+        <v>11.662145011673038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C17">
-        <v>32.58</v>
-      </c>
-      <c r="D17">
-        <v>32.58</v>
-      </c>
-      <c r="E17">
-        <v>1.54</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>50.173200000000001</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>611.7544247230968</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="12"/>
-        <v>36.688785285753902</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="13"/>
-        <v>0.899938612645795</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="14"/>
-        <v>0.71761817065684474</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="15"/>
-        <v>1.0051262426953034</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="16"/>
-        <v>0.60103800435292143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18">
-        <v>71.8</v>
-      </c>
-      <c r="D18">
-        <v>71.8</v>
-      </c>
-      <c r="E18">
-        <v>0.42</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>30.155999999999999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>461.85092856052893</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="12"/>
-        <v>81.054024226404209</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="13"/>
-        <v>0.40835654596100279</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="14"/>
-        <v>0.32562674094707522</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="15"/>
-        <v>1.6723172834593447</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19">
-        <v>25.92</v>
-      </c>
-      <c r="D19">
-        <v>25.92</v>
-      </c>
-      <c r="E19">
-        <v>1.78</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>46.137600000000006</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>836.1996920858528</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="12"/>
+      <c r="C37" s="2"/>
+      <c r="H37">
+        <f>F37*E37</f>
         <v>0</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="13"/>
-        <v>1.1311728395061729</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="14"/>
-        <v>0.90200617283950613</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="15"/>
-        <v>1.0930434179497848</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="16"/>
-        <v>0.65361007074490207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>72.5</v>
-      </c>
-      <c r="D21">
-        <v>72.5</v>
-      </c>
-      <c r="E21">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>84.1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>164.00836442658576</v>
-      </c>
-      <c r="H21">
-        <f>($G$25-G21)*100/G21</f>
-        <v>121.88986357304674</v>
-      </c>
-      <c r="J21">
-        <f>$D$21/D21</f>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f>$D$22/D21</f>
-        <v>0.66041379310344828</v>
-      </c>
-      <c r="L21">
-        <f>$F$21/F21</f>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <f>$F$24/F21</f>
-        <v>1.1223186682520809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>47.88</v>
-      </c>
-      <c r="D22">
-        <v>47.88</v>
-      </c>
-      <c r="E22">
-        <v>1.2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>57.456000000000003</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>363.50506824938515</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H25" si="17">($G$25-G22)*100/G22</f>
-        <v>0.11357966125194281</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J25" si="18">$D$21/D22</f>
-        <v>1.5142021720969088</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ref="K22:K25" si="19">$D$22/D22</f>
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ref="L22:L24" si="20">$F$21/F22</f>
-        <v>1.4637287663603451</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ref="M22:M25" si="21">$F$24/F22</f>
-        <v>1.6427701197438038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="D23">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="E23">
-        <v>1.02</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>71.185800000000015</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>201.28593605571484</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="17"/>
-        <v>80.79650431901311</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="18"/>
-        <v>1.0388307780484309</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="19"/>
-        <v>0.68605817452357065</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="20"/>
-        <v>1.1814153946433135</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="21"/>
-        <v>1.3259245523685901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24">
-        <v>255.1</v>
-      </c>
-      <c r="D24">
-        <v>255.1</v>
-      </c>
-      <c r="E24">
-        <v>0.37</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>94.387</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>41.531475311757788</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="17"/>
-        <v>776.24610814513801</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="18"/>
-        <v>0.28420227361818895</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="19"/>
-        <v>0.18769110152881224</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="20"/>
-        <v>0.89101253350567333</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25">
-        <v>52.16</v>
-      </c>
-      <c r="D25">
-        <v>52.16</v>
-      </c>
-      <c r="E25">
-        <v>1.01</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>52.681599999999996</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>363.91793607453644</v>
-      </c>
-      <c r="H25">
+      <c r="K37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="H38">
+        <f>F38*E38</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1">
+        <v>7107</v>
+      </c>
+      <c r="E39">
+        <v>148</v>
+      </c>
+      <c r="F39">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G39">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H39">
+        <f>F39*E39</f>
+        <v>1191.4000000000001</v>
+      </c>
+      <c r="J39">
+        <f>(D39/H39)</f>
+        <v>5.9652509652509647</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="17"/>
+        <v>1.1166214501167304</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="18"/>
-        <v>1.3899539877300615</v>
-      </c>
-      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40">
+        <v>6926</v>
+      </c>
+      <c r="E40">
+        <v>146</v>
+      </c>
+      <c r="H40">
+        <f>F40*E40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f>F41*E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <f>D42/$D$43</f>
+        <v>0.97737983034872766</v>
+      </c>
+      <c r="D42">
+        <v>3111</v>
+      </c>
+      <c r="E42">
+        <v>107</v>
+      </c>
+      <c r="F42">
+        <v>5.34</v>
+      </c>
+      <c r="G42">
+        <v>1.54</v>
+      </c>
+      <c r="H42">
+        <f>F42*E42</f>
+        <v>571.38</v>
+      </c>
+      <c r="J42">
+        <f>(D42/H42)</f>
+        <v>5.4447128005880501</v>
+      </c>
+      <c r="K42">
+        <f>J42/$J$43</f>
+        <v>1.2716303788743815</v>
+      </c>
+      <c r="L42">
+        <f>($J$46-J42)*100/J42</f>
+        <v>3.0237222757955662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:C47" si="19">D43/$D$43</f>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3183</v>
+      </c>
+      <c r="E43">
+        <v>118</v>
+      </c>
+      <c r="F43">
+        <v>6.3</v>
+      </c>
+      <c r="G43">
+        <v>2.59</v>
+      </c>
+      <c r="H43">
+        <f>F43*E43</f>
+        <v>743.4</v>
+      </c>
+      <c r="J43">
+        <f>(D43/H43)</f>
+        <v>4.281678773204197</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:K46" si="20">J43/$J$43</f>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:L46" si="21">($J$46-J43)*100/J43</f>
+        <v>31.008094990618975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2">
         <f t="shared" si="19"/>
-        <v>0.9179447852760737</v>
-      </c>
-      <c r="L25">
-        <f>$F$21/F25</f>
-        <v>1.5963827977889813</v>
-      </c>
-      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>F44*E44</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>F45*E45</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="19"/>
+        <v>0.9428212378259504</v>
+      </c>
+      <c r="D46">
+        <v>3001</v>
+      </c>
+      <c r="E46">
+        <v>107</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>1.3</v>
+      </c>
+      <c r="H46">
+        <f>F46*E46</f>
+        <v>535</v>
+      </c>
+      <c r="J46">
+        <f>(D46/H46)</f>
+        <v>5.6093457943925236</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="20"/>
+        <v>1.3100809499061898</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="21"/>
-        <v>1.7916502156350607</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="19"/>
+        <v>0.8912975180647188</v>
+      </c>
+      <c r="D47">
+        <v>2837</v>
+      </c>
+      <c r="H47">
+        <f>F47*E47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f>F48*E48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>7204</v>
-      </c>
-      <c r="D28">
-        <v>148</v>
-      </c>
-      <c r="E28">
-        <v>4.12</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>609.76</v>
-      </c>
-      <c r="G28">
-        <f>(C28/F28)</f>
-        <v>11.814484387299922</v>
-      </c>
-      <c r="H28">
-        <f>($G$32-G28)*100/G28</f>
-        <v>-8.249994046447739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49">
+        <v>43447</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G49">
+        <v>5.6</v>
+      </c>
+      <c r="H49">
+        <f>F49*E49</f>
+        <v>744</v>
+      </c>
+      <c r="J49">
+        <f>(D49/H49)</f>
+        <v>58.396505376344088</v>
+      </c>
+      <c r="K49">
+        <f>J49/$J$50</f>
+        <v>1.1139915811065468</v>
+      </c>
+      <c r="L49">
+        <f>($J$53-J49)*100/J49</f>
+        <v>7.2623823916536807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>7084</v>
-      </c>
-      <c r="D29">
-        <v>145</v>
-      </c>
-      <c r="E29">
-        <v>5.64</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>817.8</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G53" si="22">(C29/F29)</f>
-        <v>8.6622646123746634</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H32" si="23">($G$32-G29)*100/G29</f>
-        <v>25.13806277914631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50">
+        <v>46424</v>
+      </c>
+      <c r="E50">
+        <v>82</v>
+      </c>
+      <c r="F50">
+        <v>10.8</v>
+      </c>
+      <c r="G50">
+        <v>7.13</v>
+      </c>
+      <c r="H50">
+        <f>F50*E50</f>
+        <v>885.6</v>
+      </c>
+      <c r="J50">
+        <f>(D50/H50)</f>
+        <v>52.420957542908759</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K53" si="22">J50/$J$50</f>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:L53" si="23">($J$53-J50)*100/J50</f>
+        <v>19.489390953733302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
+      <c r="C51" s="2"/>
+      <c r="H51">
+        <f>F51*E51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="K51">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52">
+        <f t="shared" ref="D52:D59" si="24">1000/E52</f>
+        <v>10.989010989010989</v>
+      </c>
+      <c r="E52">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>2.9</v>
+      </c>
+      <c r="G52">
+        <v>2.9</v>
+      </c>
+      <c r="H52">
+        <f>F52*E52</f>
+        <v>263.89999999999998</v>
+      </c>
+      <c r="J52">
+        <f>(D52/H52)</f>
+        <v>4.1640814660898029E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="22"/>
+        <v>7.9435433102902151E-4</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="23"/>
+        <v>150323.2888098495</v>
+      </c>
+      <c r="M52">
+        <v>30188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1">
-        <v>7107</v>
-      </c>
-      <c r="D32">
-        <v>148</v>
-      </c>
-      <c r="E32">
-        <v>4.43</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>655.64</v>
-      </c>
-      <c r="G32">
+      <c r="C53" s="2"/>
+      <c r="D53" s="1">
+        <v>45788</v>
+      </c>
+      <c r="E53">
+        <v>85</v>
+      </c>
+      <c r="F53">
+        <v>8.6</v>
+      </c>
+      <c r="G53">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H53">
+        <f>F53*E53</f>
+        <v>731</v>
+      </c>
+      <c r="J53">
+        <f>(D53/H53)</f>
+        <v>62.637482900136796</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="22"/>
-        <v>10.839790128729181</v>
-      </c>
-      <c r="H32">
+        <v>1.194893909537333</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f>F54*E54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f>F55*E55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>F56*E56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
         <v>28</v>
       </c>
-      <c r="C35">
-        <v>3111</v>
-      </c>
-      <c r="D35">
-        <v>107</v>
-      </c>
-      <c r="E35">
-        <v>1.54</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>164.78</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="22"/>
-        <v>18.879718412428694</v>
-      </c>
-      <c r="H35">
-        <f>($G$39-G35)*100/G35</f>
-        <v>12.254778329995297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>3183</v>
-      </c>
-      <c r="D36">
-        <v>118</v>
-      </c>
-      <c r="E36">
-        <v>2.59</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>305.62</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="22"/>
-        <v>10.414894313199397</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H39" si="24">($G$39-G36)*100/G36</f>
-        <v>103.49112929873455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>341</v>
+      </c>
+      <c r="F57">
+        <v>7.2</v>
+      </c>
+      <c r="G57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H57">
+        <f>F57*E57</f>
+        <v>2455.2000000000003</v>
+      </c>
+      <c r="J57">
+        <f>(1000*D57/H57)</f>
+        <v>8.5532746823069399</v>
+      </c>
+      <c r="K57">
+        <f>J57/$J$58</f>
+        <v>1.0350628721229895</v>
+      </c>
+      <c r="L57">
+        <f>($J$60-J57)*100/J57</f>
+        <v>15.300084530853777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>337</v>
+      </c>
+      <c r="F58">
+        <v>7.9</v>
+      </c>
+      <c r="G58">
+        <v>2.8</v>
+      </c>
+      <c r="H58">
+        <f>F58*E58</f>
+        <v>2662.3</v>
+      </c>
+      <c r="J58">
+        <f>(1000*D58/H58)</f>
+        <v>8.2635315328850982</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:K61" si="25">J58/$J$58</f>
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:L61" si="26">($J$60-J58)*100/J58</f>
+        <v>19.342836650528984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="24"/>
+        <v>2.8735632183908044</v>
+      </c>
+      <c r="E59">
+        <v>348</v>
+      </c>
+      <c r="F59">
+        <v>1.8</v>
+      </c>
+      <c r="G59">
+        <v>1.8</v>
+      </c>
+      <c r="H59">
+        <f>F59*E59</f>
+        <v>626.4</v>
+      </c>
+      <c r="J59">
+        <f>(1000*D59/H59)</f>
+        <v>4.5874253167158434</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="25"/>
+        <v>0.55514101912239056</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="26"/>
+        <v>114.97751479289946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>338</v>
+      </c>
+      <c r="F60">
+        <v>7.2</v>
+      </c>
+      <c r="G60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H60">
+        <f>F60*E60</f>
+        <v>2433.6</v>
+      </c>
+      <c r="J60">
+        <f>(1000*D60/H60)</f>
+        <v>9.8619329388560164</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="25"/>
+        <v>1.1934283665052898</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2948</v>
-      </c>
-      <c r="D39">
-        <v>107</v>
-      </c>
-      <c r="E39">
-        <v>1.3</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>139.1</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="22"/>
-        <v>21.193386053199138</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>43447</v>
-      </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
-      <c r="E42">
-        <v>5.6</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>448</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="22"/>
-        <v>96.979910714285708</v>
-      </c>
-      <c r="H42">
-        <f>($G$46-G42)*100/G42</f>
-        <v>13.590525671922993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>46424</v>
-      </c>
-      <c r="D43">
-        <v>82</v>
-      </c>
-      <c r="E43">
-        <v>7.13</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>584.66</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="22"/>
-        <v>79.403413949988035</v>
-      </c>
-      <c r="H43">
-        <f t="shared" ref="H43:H46" si="25">($G$46-G43)*100/G43</f>
-        <v>38.734576885954297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45">
-        <v>28129</v>
-      </c>
-      <c r="D45">
-        <v>91</v>
-      </c>
-      <c r="E45">
-        <v>2.9</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>263.89999999999998</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="22"/>
-        <v>106.58961727927246</v>
-      </c>
-      <c r="H45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>339</v>
+      </c>
+      <c r="F61">
+        <v>7.5</v>
+      </c>
+      <c r="H61">
+        <f>F61*E61</f>
+        <v>2542.5</v>
+      </c>
+      <c r="I61">
+        <f>(H61-H60)*100/H61</f>
+        <v>4.2831858407079686</v>
+      </c>
+      <c r="J61">
+        <f>(1000*D61/H61)</f>
+        <v>9.0462143559488695</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="25"/>
-        <v>3.349644354094651</v>
-      </c>
-      <c r="I45">
-        <v>30188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45788</v>
-      </c>
-      <c r="D46">
-        <v>85</v>
-      </c>
-      <c r="E46">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>415.65</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="22"/>
-        <v>110.15999037651871</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50">
-        <v>21</v>
-      </c>
-      <c r="D50">
-        <v>341</v>
-      </c>
-      <c r="E50">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>750.2</v>
-      </c>
-      <c r="G50">
-        <f>(1000*C50/F50)</f>
-        <v>27.992535323913621</v>
-      </c>
-      <c r="H50">
-        <f>($G$53-G50)*100/G50</f>
-        <v>-3.4988422948289126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51">
-        <v>337</v>
-      </c>
-      <c r="E51">
-        <v>2.8</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>943.59999999999991</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51:G53" si="26">(1000*C51/F51)</f>
-        <v>26.494277236117</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51:H53" si="27">($G$53-G51)*100/G51</f>
-        <v>1.9583226138410021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>348</v>
-      </c>
-      <c r="E52">
-        <v>1.8</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>626.4</v>
-      </c>
-      <c r="G52">
+        <v>1.0947152945383036</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="26"/>
-        <v>19.157088122605366</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="27"/>
-        <v>41.00848983792126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53">
-        <v>21</v>
-      </c>
-      <c r="D53">
-        <v>338</v>
-      </c>
-      <c r="E53">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>777.4</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="26"/>
-        <v>27.013120658605608</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>9.0172369436583519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62">
+        <f>21*1.04</f>
+        <v>21.84</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +4079,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D7D55-9B90-834C-A814-CE0F4FEFC27B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098B729-05F1-7843-8438-E8E2F8680D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47665353-7AB5-4148-A1E2-100087CAD622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>Benchmark</t>
   </si>
@@ -411,9 +411,6 @@
     <t>Latency</t>
   </si>
   <si>
-    <t>Norm</t>
-  </si>
-  <si>
     <t>coCap</t>
   </si>
   <si>
@@ -427,6 +424,27 @@
   </si>
   <si>
     <t>Norm_Perf_Score</t>
+  </si>
+  <si>
+    <t>Energy_Perc_CRAVE</t>
+  </si>
+  <si>
+    <t>Norm_PPE</t>
+  </si>
+  <si>
+    <t>GEAR</t>
+  </si>
+  <si>
+    <t>schedutil</t>
+  </si>
+  <si>
+    <t>CRAVE</t>
+  </si>
+  <si>
+    <t>Rodinia:nw</t>
+  </si>
+  <si>
+    <t>mAh</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,6 +517,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,19 +1149,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1281,19 +1300,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1432,19 +1451,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1987,34 +2006,34 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2035,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B292E8-9767-8E46-B24F-52C4CE39A8E7}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2061,7 +2080,7 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>113</v>
@@ -2078,11 +2097,14 @@
       <c r="H1" t="s">
         <v>102</v>
       </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
       <c r="J1" t="s">
         <v>111</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
         <v>112</v>
@@ -2108,8 +2130,8 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <f>D3/$D$5</f>
-        <v>0.90214285714285714</v>
+        <f>D3/$D$4</f>
+        <v>0.49499999999999994</v>
       </c>
       <c r="D3">
         <f>$E$5/E3</f>
@@ -2125,11 +2147,11 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>F3*E3</f>
+        <f t="shared" ref="H3:H8" si="0">F3*E3</f>
         <v>574</v>
       </c>
       <c r="J3">
-        <f>(1000000/E3)/H3</f>
+        <f t="shared" ref="J3:J8" si="1">(1000000/E3)/H3</f>
         <v>12.444001991040318</v>
       </c>
       <c r="K3">
@@ -2162,11 +2184,11 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="0">D4/$D$5</f>
-        <v>1.8225108225108226</v>
+        <f t="shared" ref="C4:C9" si="2">D4/$D$4</f>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="1">$E$5/E4</f>
+        <f t="shared" ref="D4:D8" si="3">$E$5/E4</f>
         <v>1.8225108225108226</v>
       </c>
       <c r="E4">
@@ -2179,19 +2201,19 @@
         <v>1.8</v>
       </c>
       <c r="H4">
-        <f>F4*E4</f>
+        <f t="shared" si="0"/>
         <v>374.22</v>
       </c>
       <c r="J4">
-        <f>(1000000/E4)/H4</f>
+        <f t="shared" si="1"/>
         <v>38.560243787115681</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="2">J4/$J$5</f>
+        <f t="shared" ref="K4:K8" si="4">J4/$J$5</f>
         <v>2.614179484670105</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="3">($J$7-J4)*100/J4</f>
+        <f t="shared" ref="L4:L7" si="5">($J$7-J4)*100/J4</f>
         <v>11.168749999999992</v>
       </c>
       <c r="N4">
@@ -2216,11 +2238,11 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.54869358669833723</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E5">
@@ -2233,19 +2255,23 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H5">
-        <f>F5*E5</f>
+        <f t="shared" si="0"/>
         <v>536.77499999999998</v>
       </c>
+      <c r="I5" s="1">
+        <f>(H5-H8)*100/H5</f>
+        <v>24.34819058264636</v>
+      </c>
       <c r="J5">
-        <f>(1000000/E5)/H5</f>
+        <f t="shared" si="1"/>
         <v>14.750419400518618</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>190.61506558641972</v>
       </c>
       <c r="N5">
@@ -2270,11 +2296,11 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.4626373626373626</v>
+        <f t="shared" si="2"/>
+        <v>0.25384615384615383</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4626373626373626</v>
       </c>
       <c r="E6">
@@ -2287,19 +2313,19 @@
         <v>0.36</v>
       </c>
       <c r="H6">
-        <f>F6*E6</f>
+        <f t="shared" si="0"/>
         <v>589.68000000000006</v>
       </c>
       <c r="J6">
-        <f>(1000000/E6)/H6</f>
+        <f t="shared" si="1"/>
         <v>6.2118499236936344</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42113039331445917</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>590.08333333333337</v>
       </c>
       <c r="N6">
@@ -2324,11 +2350,11 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.7541666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.96249999999999991</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7541666666666667</v>
       </c>
       <c r="E7">
@@ -2341,19 +2367,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>F7*E7</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="J7">
-        <f>(1000000/E7)/H7</f>
+        <f t="shared" si="1"/>
         <v>42.866941015089161</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9061506558641974</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N7">
@@ -2375,10 +2401,14 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.80208333333333326</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4618055555555556</v>
       </c>
       <c r="E8">
@@ -2392,7 +2422,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H8">
-        <f>F8*E8</f>
+        <f t="shared" si="0"/>
         <v>406.08</v>
       </c>
       <c r="I8">
@@ -2400,21 +2430,21 @@
         <v>20.212765957446805</v>
       </c>
       <c r="J8">
-        <f>(1000000/E8)/H8</f>
+        <f t="shared" si="1"/>
         <v>28.50195546216035</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9322810211863015</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9">
-        <f>C3*1.19</f>
-        <v>1.07355</v>
+        <f t="shared" si="2"/>
+        <v>0.58904999999999996</v>
       </c>
       <c r="D9">
         <f>D3*1.19</f>
@@ -2450,11 +2480,11 @@
         <v>2.96</v>
       </c>
       <c r="H11">
-        <f>F11*E11</f>
+        <f t="shared" ref="H11:H16" si="6">F11*E11</f>
         <v>591.09</v>
       </c>
       <c r="J11">
-        <f>(1000000/E11)/H11</f>
+        <f t="shared" ref="J11:J16" si="7">(1000000/E11)/H11</f>
         <v>17.459130488860367</v>
       </c>
       <c r="K11">
@@ -2466,11 +2496,11 @@
         <v>36.038621381944161</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N16" si="4">$E$11/E11</f>
+        <f t="shared" ref="N11:N16" si="8">$E$11/E11</f>
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O16" si="5">$E$12/E11</f>
+        <f t="shared" ref="O11:O16" si="9">$E$12/E11</f>
         <v>0.88338493292053655</v>
       </c>
       <c r="P11">
@@ -2487,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D16" si="6">$E$13/E12</f>
+        <f t="shared" ref="D12:D16" si="10">$E$13/E12</f>
         <v>1.3376168224299065</v>
       </c>
       <c r="E12">
@@ -2500,27 +2530,27 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <f>F12*E12</f>
+        <f t="shared" si="6"/>
         <v>547.84</v>
       </c>
       <c r="J12">
-        <f>(1000000/E12)/H12</f>
+        <f t="shared" si="7"/>
         <v>21.324187701982705</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K16" si="7">J12/$J$13</f>
+        <f t="shared" ref="K12:K16" si="11">J12/$J$13</f>
         <v>1.5935229613735369</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L16" si="8">($J$15-J12)*100/J12</f>
+        <f t="shared" ref="L12:L16" si="12">($J$15-J12)*100/J12</f>
         <v>11.381313812539595</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1320093457943927</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P12">
@@ -2537,7 +2567,7 @@
         <v>101</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E13">
@@ -2550,27 +2580,31 @@
         <v>2.7</v>
       </c>
       <c r="H13">
-        <f>F13*E13</f>
+        <f t="shared" si="6"/>
         <v>652.65</v>
       </c>
+      <c r="I13" s="1">
+        <f>(H13-H15)*100/H13</f>
+        <v>26.94093311882326</v>
+      </c>
       <c r="J13">
-        <f>(1000000/E13)/H13</f>
+        <f t="shared" si="7"/>
         <v>13.381788790543894</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L13">
+        <f t="shared" si="12"/>
+        <v>77.488681028233316</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="8"/>
-        <v>77.488681028233316</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
         <v>0.84628820960698692</v>
       </c>
       <c r="O13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.74759825327510909</v>
       </c>
       <c r="P13">
@@ -2587,7 +2621,7 @@
         <v>96</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.2033747779751332</v>
       </c>
       <c r="E14">
@@ -2600,27 +2634,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H14">
-        <f>F14*E14</f>
+        <f t="shared" si="6"/>
         <v>1328.6799999999998</v>
       </c>
       <c r="J14">
-        <f>(1000000/E14)/H14</f>
+        <f t="shared" si="7"/>
         <v>1.3368146839574913</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.9898055849016079E-2</v>
       </c>
       <c r="L14">
+        <f t="shared" si="12"/>
+        <v>1676.6980500249788</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="8"/>
-        <v>1676.6980500249788</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
         <v>0.17211367673179398</v>
       </c>
       <c r="O14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.15204262877442273</v>
       </c>
       <c r="P14">
@@ -2637,7 +2671,7 @@
         <v>97</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2967157417893544</v>
       </c>
       <c r="E15">
@@ -2650,27 +2684,27 @@
         <v>2.52</v>
       </c>
       <c r="H15">
-        <f>F15*E15</f>
+        <f t="shared" si="6"/>
         <v>476.82</v>
       </c>
       <c r="J15">
-        <f>(1000000/E15)/H15</f>
+        <f t="shared" si="7"/>
         <v>23.751160422320332</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.7748868102823332</v>
       </c>
       <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
         <v>1.0973952434881089</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9694224235560589</v>
       </c>
       <c r="P15">
@@ -2684,10 +2718,14 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C16">
+        <f>D15/D16</f>
+        <v>1.0679501698754246</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2142099681866385</v>
       </c>
       <c r="E16">
@@ -2700,7 +2738,7 @@
         <v>2.7</v>
       </c>
       <c r="H16">
-        <f>F16*E16</f>
+        <f t="shared" si="6"/>
         <v>528.07999999999993</v>
       </c>
       <c r="I16">
@@ -2708,29 +2746,29 @@
         <v>9.7068625965762649</v>
       </c>
       <c r="J16">
-        <f>(1000000/E16)/H16</f>
+        <f t="shared" si="7"/>
         <v>20.081150338254933</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5006327369660082</v>
       </c>
       <c r="L16">
+        <f t="shared" si="12"/>
+        <v>18.275895664572403</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="8"/>
-        <v>18.275895664572403</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
         <v>1.0275715800636269</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.90774125132555672</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <f>D11*1</f>
@@ -2766,11 +2804,11 @@
         <v>1.72</v>
       </c>
       <c r="H19">
-        <f>F19*E19</f>
+        <f t="shared" ref="H19:H24" si="13">F19*E19</f>
         <v>123.73039999999999</v>
       </c>
       <c r="J19">
-        <f>(1000000/E19)/H19</f>
+        <f t="shared" ref="J19:J24" si="14">(1000000/E19)/H19</f>
         <v>275.65102840900073</v>
       </c>
       <c r="K19">
@@ -2804,7 +2842,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20">
-        <f t="shared" ref="D20:D24" si="9">$E$21/E20</f>
+        <f t="shared" ref="D20:D24" si="15">$E$21/E20</f>
         <v>1.3934987168520103</v>
       </c>
       <c r="E20">
@@ -2817,19 +2855,19 @@
         <v>2.4</v>
       </c>
       <c r="H20">
-        <f>F20*E20</f>
+        <f t="shared" si="13"/>
         <v>126.25200000000001</v>
       </c>
       <c r="J20">
-        <f>(1000000/E20)/H20</f>
+        <f t="shared" si="14"/>
         <v>338.77958097952666</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K24" si="10">J20/$J$21</f>
+        <f t="shared" ref="K20:K24" si="16">J20/$J$21</f>
         <v>1.632582885066967</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L23" si="11">($J$23-J20)*100/J20</f>
+        <f t="shared" ref="L20:L23" si="17">($J$23-J20)*100/J20</f>
         <v>0.30871537760490475</v>
       </c>
       <c r="N20">
@@ -2855,7 +2893,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E21">
@@ -2868,19 +2906,23 @@
         <v>1.54</v>
       </c>
       <c r="H21">
-        <f>F21*E21</f>
+        <f t="shared" si="13"/>
         <v>147.91319999999999</v>
       </c>
+      <c r="I21" s="1">
+        <f>(H21-H23)*100/H21</f>
+        <v>23.245795507094694</v>
+      </c>
       <c r="J21">
-        <f>(1000000/E21)/H21</f>
+        <f t="shared" si="14"/>
         <v>207.51141279153507</v>
       </c>
       <c r="K21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>63.762291948531455</v>
       </c>
       <c r="N21">
@@ -2906,7 +2948,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.45376044568245127</v>
       </c>
       <c r="E22">
@@ -2920,19 +2962,19 @@
         <v>0.42</v>
       </c>
       <c r="H22">
-        <f>F22*E22</f>
+        <f t="shared" si="13"/>
         <v>159.39600000000002</v>
       </c>
       <c r="J22">
-        <f>(1000000/E22)/H22</f>
+        <f t="shared" si="14"/>
         <v>87.377202700640595</v>
       </c>
       <c r="K22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.42107179323394273</v>
       </c>
       <c r="L22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>288.91774414712927</v>
       </c>
       <c r="N22">
@@ -2956,9 +2998,12 @@
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <f>D23/D24</f>
+        <v>1.1299999999999999</v>
+      </c>
       <c r="D23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.2569444444444442</v>
       </c>
       <c r="E23">
@@ -2972,19 +3017,19 @@
         <v>1.78</v>
       </c>
       <c r="H23">
-        <f>F23*E23</f>
+        <f t="shared" si="13"/>
         <v>113.5296</v>
       </c>
       <c r="J23">
-        <f>(1000000/E23)/H23</f>
+        <f t="shared" si="14"/>
         <v>339.82544564219592</v>
       </c>
       <c r="K23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.6376229194853147</v>
       </c>
       <c r="L23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N23">
@@ -3006,10 +3051,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.1123402163225171</v>
       </c>
       <c r="E24">
@@ -3025,7 +3070,7 @@
         <v>4.8180000000000005</v>
       </c>
       <c r="H24">
-        <f>F24*E24</f>
+        <f t="shared" si="13"/>
         <v>141.1172928</v>
       </c>
       <c r="I24">
@@ -3033,17 +3078,17 @@
         <v>24.3</v>
       </c>
       <c r="J24">
-        <f>(1000000/E24)/H24</f>
+        <f t="shared" si="14"/>
         <v>241.93924607337081</v>
       </c>
       <c r="K24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.1659081436471246</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25">
         <f>D19*(0.92)</f>
@@ -3083,11 +3128,11 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H27">
-        <f>F27*E27</f>
+        <f t="shared" ref="H27:H32" si="18">F27*E27</f>
         <v>258.09999999999997</v>
       </c>
       <c r="J27">
-        <f>(1000000/E27)/H27</f>
+        <f t="shared" ref="J27:J32" si="19">(1000000/E27)/H27</f>
         <v>53.440927734505479</v>
       </c>
       <c r="K27">
@@ -3099,11 +3144,11 @@
         <v>95.949305792132506</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N32" si="12">$E$27/E27</f>
+        <f t="shared" ref="N27:N32" si="20">$E$27/E27</f>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O32" si="13">$E$28/E27</f>
+        <f t="shared" ref="O27:O32" si="21">$E$28/E27</f>
         <v>0.66041379310344828</v>
       </c>
       <c r="P27">
@@ -3121,7 +3166,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28">
-        <f t="shared" ref="D28:D32" si="14">$E$29/E28</f>
+        <f t="shared" ref="D28:D32" si="22">$E$29/E28</f>
         <v>1.4576023391812867</v>
       </c>
       <c r="E28">
@@ -3135,27 +3180,27 @@
         <v>1.2</v>
       </c>
       <c r="H28">
-        <f>F28*E28</f>
+        <f t="shared" si="18"/>
         <v>201.09600000000003</v>
       </c>
       <c r="J28">
-        <f>(1000000/E28)/H28</f>
+        <f t="shared" si="19"/>
         <v>103.85859092839574</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K32" si="15">J28/$J$29</f>
+        <f t="shared" ref="K28:K32" si="23">J28/$J$29</f>
         <v>1.982964273907641</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L32" si="16">($J$31-J28)*100/J28</f>
+        <f t="shared" ref="L28:L32" si="24">($J$31-J28)*100/J28</f>
         <v>0.82663934544890616</v>
       </c>
       <c r="N28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.5142021720969088</v>
       </c>
       <c r="O28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P28">
@@ -3173,7 +3218,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="E29">
@@ -3187,27 +3232,31 @@
         <v>1.02</v>
       </c>
       <c r="H29">
-        <f>F29*E29</f>
+        <f t="shared" si="18"/>
         <v>273.57679999999999</v>
       </c>
+      <c r="I29" s="1">
+        <f>(H29-H31)*100/H29</f>
+        <v>33.078535899242922</v>
+      </c>
       <c r="J29">
-        <f>(1000000/E29)/H29</f>
+        <f t="shared" si="19"/>
         <v>52.37542213694622</v>
       </c>
       <c r="K29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>99.935623680195675</v>
       </c>
       <c r="N29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.0388307780484309</v>
       </c>
       <c r="O29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.68605817452357065</v>
       </c>
       <c r="P29">
@@ -3225,7 +3274,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.2735789886319091</v>
       </c>
       <c r="E30">
@@ -3239,27 +3288,27 @@
         <v>0.37</v>
       </c>
       <c r="H30">
-        <f>F30*E30</f>
+        <f t="shared" si="18"/>
         <v>553.56700000000001</v>
       </c>
       <c r="J30">
-        <f>(1000000/E30)/H30</f>
+        <f t="shared" si="19"/>
         <v>7.0814036245854286</v>
       </c>
       <c r="K30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.13520470739251811</v>
       </c>
       <c r="L30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1378.7622970830055</v>
       </c>
       <c r="N30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.28420227361818895</v>
       </c>
       <c r="O30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.18769110152881224</v>
       </c>
       <c r="P30">
@@ -3275,9 +3324,12 @@
       <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <f>D31/D32</f>
+        <v>1.0410276073619633</v>
+      </c>
       <c r="D31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.3379984662576689</v>
       </c>
       <c r="E31">
@@ -3291,27 +3343,27 @@
         <v>1.01</v>
       </c>
       <c r="H31">
-        <f>F31*E31</f>
+        <f t="shared" si="18"/>
         <v>183.08159999999998</v>
       </c>
       <c r="J31">
-        <f>(1000000/E31)/H31</f>
+        <f t="shared" si="19"/>
         <v>104.71712690463869</v>
       </c>
       <c r="K31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.9993562368019566</v>
       </c>
       <c r="L31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.3899539877300615</v>
       </c>
       <c r="O31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.9179447852760737</v>
       </c>
       <c r="P31">
@@ -3325,10 +3377,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.285267034990792</v>
       </c>
       <c r="E32">
@@ -3341,7 +3393,7 @@
         <v>1.01</v>
       </c>
       <c r="H32">
-        <f>F32*E32</f>
+        <f t="shared" si="18"/>
         <v>188.964</v>
       </c>
       <c r="I32">
@@ -3349,29 +3401,29 @@
         <v>3.1129738997904459</v>
       </c>
       <c r="J32">
-        <f>(1000000/E32)/H32</f>
+        <f t="shared" si="19"/>
         <v>97.458808352438197</v>
       </c>
       <c r="K32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.8607737059877489</v>
       </c>
       <c r="L32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>7.4475757244562137</v>
       </c>
       <c r="N32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.3351749539594844</v>
       </c>
       <c r="O32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.88176795580110512</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <f>D27*1.19</f>
@@ -3387,7 +3439,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34">
-        <f>F34*E34</f>
+        <f t="shared" ref="H34:H61" si="25">F34*E34</f>
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3450,10 @@
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <f>D35/$D$36</f>
+        <v>0.97834536368684066</v>
+      </c>
       <c r="D35">
         <v>7048</v>
       </c>
@@ -3412,7 +3467,7 @@
         <v>7.95</v>
       </c>
       <c r="H35">
-        <f>F35*E35</f>
+        <f t="shared" si="25"/>
         <v>1176.6000000000001</v>
       </c>
       <c r="J35">
@@ -3432,7 +3487,10 @@
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:C40" si="26">D36/$D$36</f>
+        <v>1</v>
+      </c>
       <c r="D36">
         <v>7204</v>
       </c>
@@ -3446,19 +3504,23 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="H36">
-        <f>F36*E36</f>
+        <f t="shared" si="25"/>
         <v>1348.5</v>
+      </c>
+      <c r="I36" s="1">
+        <f>(H36-H39)*100/H36</f>
+        <v>11.649981460882456</v>
       </c>
       <c r="J36">
         <f>(D36/H36)</f>
         <v>5.3422321097515759</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K39" si="17">J36/$J$36</f>
+        <f t="shared" ref="K36:K40" si="27">J36/$J$36</f>
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L39" si="18">($J$39-J36)*100/J36</f>
+        <f t="shared" ref="L36:L39" si="28">($J$39-J36)*100/J36</f>
         <v>11.662145011673038</v>
       </c>
     </row>
@@ -3466,13 +3528,16 @@
       <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="H37">
-        <f>F37*E37</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -3480,13 +3545,16 @@
       <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="H38">
-        <f>F38*E38</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3562,10 @@
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <f t="shared" si="26"/>
+        <v>0.98653525818989452</v>
+      </c>
       <c r="D39" s="1">
         <v>7107</v>
       </c>
@@ -3508,7 +3579,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="H39">
-        <f>F39*E39</f>
+        <f t="shared" si="25"/>
         <v>1191.4000000000001</v>
       </c>
       <c r="J39">
@@ -3516,17 +3587,21 @@
         <v>5.9652509652509647</v>
       </c>
       <c r="K39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.1166214501167304</v>
       </c>
       <c r="L39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="26"/>
+        <v>0.96141032759578016</v>
       </c>
       <c r="D40">
         <v>6926</v>
@@ -3534,14 +3609,25 @@
       <c r="E40">
         <v>146</v>
       </c>
+      <c r="F40">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="H40">
-        <f>F40*E40</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1175.3000000000002</v>
+      </c>
+      <c r="J40">
+        <f>(D40/H40)</f>
+        <v>5.892963498681187</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="27"/>
+        <v>1.1030901274252611</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H41">
-        <f>F41*E41</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3569,7 +3655,7 @@
         <v>1.54</v>
       </c>
       <c r="H42">
-        <f>F42*E42</f>
+        <f t="shared" si="25"/>
         <v>571.38</v>
       </c>
       <c r="J42">
@@ -3590,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:C47" si="19">D43/$D$43</f>
+        <f t="shared" ref="C43:C47" si="29">D43/$D$43</f>
         <v>1</v>
       </c>
       <c r="D43">
@@ -3606,19 +3692,23 @@
         <v>2.59</v>
       </c>
       <c r="H43">
-        <f>F43*E43</f>
+        <f t="shared" si="25"/>
         <v>743.4</v>
+      </c>
+      <c r="I43" s="1">
+        <f>(H43-H46)*100/H43</f>
+        <v>28.033360236750063</v>
       </c>
       <c r="J43">
         <f>(D43/H43)</f>
         <v>4.281678773204197</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:K46" si="20">J43/$J$43</f>
+        <f t="shared" ref="K43:K47" si="30">J43/$J$43</f>
         <v>1</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:L46" si="21">($J$46-J43)*100/J43</f>
+        <f t="shared" ref="L43:L46" si="31">($J$46-J43)*100/J43</f>
         <v>31.008094990618975</v>
       </c>
     </row>
@@ -3627,15 +3717,15 @@
         <v>101</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>F44*E44</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3644,15 +3734,15 @@
         <v>96</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>F45*E45</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3661,7 +3751,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.9428212378259504</v>
       </c>
       <c r="D46">
@@ -3677,7 +3767,7 @@
         <v>1.3</v>
       </c>
       <c r="H46">
-        <f>F46*E46</f>
+        <f t="shared" si="25"/>
         <v>535</v>
       </c>
       <c r="J46">
@@ -3685,33 +3775,51 @@
         <v>5.6093457943925236</v>
       </c>
       <c r="K46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.3100809499061898</v>
       </c>
       <c r="L46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.8912975180647188</v>
       </c>
       <c r="D47">
         <v>2837</v>
       </c>
+      <c r="E47">
+        <v>107</v>
+      </c>
+      <c r="F47">
+        <v>5.15</v>
+      </c>
       <c r="H47">
-        <f>F47*E47</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>551.05000000000007</v>
+      </c>
+      <c r="I47">
+        <f>(H47-H46)*100/H47</f>
+        <v>2.912621359223313</v>
+      </c>
+      <c r="J47">
+        <f>(D47/H47)</f>
+        <v>5.1483531439978218</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="30"/>
+        <v>1.2024146174200379</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H48">
-        <f>F48*E48</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3722,7 +3830,10 @@
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <f>D49/$D$50</f>
+        <v>0.93587368602447008</v>
+      </c>
       <c r="D49">
         <v>43447</v>
       </c>
@@ -3736,7 +3847,7 @@
         <v>5.6</v>
       </c>
       <c r="H49">
-        <f>F49*E49</f>
+        <f t="shared" si="25"/>
         <v>744</v>
       </c>
       <c r="J49">
@@ -3756,7 +3867,10 @@
       <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <f t="shared" ref="C50:C54" si="32">D50/$D$50</f>
+        <v>1</v>
+      </c>
       <c r="D50">
         <v>46424</v>
       </c>
@@ -3770,19 +3884,23 @@
         <v>7.13</v>
       </c>
       <c r="H50">
-        <f>F50*E50</f>
+        <f t="shared" si="25"/>
         <v>885.6</v>
+      </c>
+      <c r="I50" s="1">
+        <f>(H50-H53)*100/H50</f>
+        <v>17.457091237579043</v>
       </c>
       <c r="J50">
         <f>(D50/H50)</f>
         <v>52.420957542908759</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50:K53" si="22">J50/$J$50</f>
+        <f t="shared" ref="K50:K54" si="33">J50/$J$50</f>
         <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:L53" si="23">($J$53-J50)*100/J50</f>
+        <f t="shared" ref="L50:L54" si="34">($J$53-J50)*100/J50</f>
         <v>19.489390953733302</v>
       </c>
     </row>
@@ -3790,13 +3908,16 @@
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="H51">
-        <f>F51*E51</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3927,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52">
-        <f t="shared" ref="D52:D59" si="24">1000/E52</f>
+        <f t="shared" ref="D52:D59" si="35">1000/E52</f>
         <v>10.989010989010989</v>
       </c>
       <c r="E52">
@@ -3819,7 +3940,7 @@
         <v>2.9</v>
       </c>
       <c r="H52">
-        <f>F52*E52</f>
+        <f t="shared" si="25"/>
         <v>263.89999999999998</v>
       </c>
       <c r="J52">
@@ -3827,11 +3948,11 @@
         <v>4.1640814660898029E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>7.9435433102902151E-4</v>
       </c>
       <c r="L52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>150323.2888098495</v>
       </c>
       <c r="M52">
@@ -3842,7 +3963,10 @@
       <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <f t="shared" si="32"/>
+        <v>0.98630018955712562</v>
+      </c>
       <c r="D53" s="1">
         <v>45788</v>
       </c>
@@ -3856,7 +3980,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="H53">
-        <f>F53*E53</f>
+        <f t="shared" si="25"/>
         <v>731</v>
       </c>
       <c r="J53">
@@ -3864,29 +3988,61 @@
         <v>62.637482900136796</v>
       </c>
       <c r="K53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>1.194893909537333</v>
       </c>
       <c r="L53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="32"/>
+        <v>0.96609512321213165</v>
+      </c>
+      <c r="D54">
+        <v>44850</v>
+      </c>
+      <c r="E54">
+        <v>83</v>
+      </c>
+      <c r="F54">
+        <v>9.91</v>
+      </c>
       <c r="H54">
-        <f>F54*E54</f>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>822.53</v>
+      </c>
+      <c r="I54">
+        <f>(H54-H53)*100/H53</f>
+        <v>12.521203830369352</v>
+      </c>
+      <c r="J54">
+        <f>(D54/H54)</f>
+        <v>54.52688655732922</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="33"/>
+        <v>1.0401734175247881</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="34"/>
+        <v>14.874490099998917</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H55">
-        <f>F55*E55</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H56">
-        <f>F56*E56</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3897,6 +4053,10 @@
       <c r="B57" t="s">
         <v>28</v>
       </c>
+      <c r="C57">
+        <f>D57/$D$58</f>
+        <v>0.95454545454545459</v>
+      </c>
       <c r="D57">
         <v>21</v>
       </c>
@@ -3910,7 +4070,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H57">
-        <f>F57*E57</f>
+        <f t="shared" si="25"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="J57">
@@ -3930,6 +4090,10 @@
       <c r="B58" t="s">
         <v>39</v>
       </c>
+      <c r="C58">
+        <f t="shared" ref="C58:C62" si="36">D58/$D$58</f>
+        <v>1</v>
+      </c>
       <c r="D58">
         <v>22</v>
       </c>
@@ -3943,19 +4107,23 @@
         <v>2.8</v>
       </c>
       <c r="H58">
-        <f>F58*E58</f>
+        <f t="shared" si="25"/>
         <v>2662.3</v>
+      </c>
+      <c r="I58" s="1">
+        <f>(H58-H60)*100/H58</f>
+        <v>8.5903166435037477</v>
       </c>
       <c r="J58">
         <f>(1000*D58/H58)</f>
         <v>8.2635315328850982</v>
       </c>
       <c r="K58">
-        <f t="shared" ref="K58:K61" si="25">J58/$J$58</f>
+        <f t="shared" ref="K58:K61" si="37">J58/$J$58</f>
         <v>1</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L61" si="26">($J$60-J58)*100/J58</f>
+        <f t="shared" ref="L58:L61" si="38">($J$60-J58)*100/J58</f>
         <v>19.342836650528984</v>
       </c>
     </row>
@@ -3963,8 +4131,12 @@
       <c r="B59" t="s">
         <v>96</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="36"/>
+        <v>0.13061650992685475</v>
+      </c>
       <c r="D59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>2.8735632183908044</v>
       </c>
       <c r="E59">
@@ -3977,7 +4149,7 @@
         <v>1.8</v>
       </c>
       <c r="H59">
-        <f>F59*E59</f>
+        <f t="shared" si="25"/>
         <v>626.4</v>
       </c>
       <c r="J59">
@@ -3985,11 +4157,11 @@
         <v>4.5874253167158434</v>
       </c>
       <c r="K59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.55514101912239056</v>
       </c>
       <c r="L59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>114.97751479289946</v>
       </c>
     </row>
@@ -3997,6 +4169,10 @@
       <c r="B60" t="s">
         <v>97</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="36"/>
+        <v>1.0909090909090908</v>
+      </c>
       <c r="D60">
         <v>24</v>
       </c>
@@ -4010,7 +4186,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H60">
-        <f>F60*E60</f>
+        <f t="shared" si="25"/>
         <v>2433.6</v>
       </c>
       <c r="J60">
@@ -4018,17 +4194,21 @@
         <v>9.8619329388560164</v>
       </c>
       <c r="K60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.1934283665052898</v>
       </c>
       <c r="L60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="36"/>
+        <v>1.0454545454545454</v>
       </c>
       <c r="D61">
         <v>23</v>
@@ -4040,7 +4220,7 @@
         <v>7.5</v>
       </c>
       <c r="H61">
-        <f>F61*E61</f>
+        <f t="shared" si="25"/>
         <v>2542.5</v>
       </c>
       <c r="I61">
@@ -4052,21 +4232,112 @@
         <v>9.0462143559488695</v>
       </c>
       <c r="K61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.0947152945383036</v>
       </c>
       <c r="L61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9.0172369436583519</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="36"/>
+        <v>0.99272727272727268</v>
       </c>
       <c r="D62">
         <f>21*1.04</f>
         <v>21.84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66">
+        <f>$E$67/E66</f>
+        <v>1.1972602739726028</v>
+      </c>
+      <c r="E66">
+        <v>14.6</v>
+      </c>
+      <c r="G66">
+        <v>3025</v>
+      </c>
+      <c r="H66">
+        <f>4.98*G66*3.6/1000</f>
+        <v>54.232200000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D69" si="39">$E$67/E67</f>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>17.48</v>
+      </c>
+      <c r="G67">
+        <v>3387</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H69" si="40">4.98*G67*3.6/1000</f>
+        <v>60.722136000000006</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="39"/>
+        <v>1.3656249999999999</v>
+      </c>
+      <c r="E68">
+        <v>12.8</v>
+      </c>
+      <c r="G68">
+        <v>2670</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="40"/>
+        <v>47.867760000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="39"/>
+        <v>1.240596167494677</v>
+      </c>
+      <c r="E69">
+        <v>14.09</v>
+      </c>
+      <c r="G69">
+        <v>2854</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="40"/>
+        <v>51.166512000000012</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4350,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47665353-7AB5-4148-A1E2-100087CAD622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A26571-C869-034C-890A-0A40CBC51B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="-38400" yWindow="-1480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
   <si>
     <t>Benchmark</t>
   </si>
@@ -446,12 +446,36 @@
   <si>
     <t>mAh</t>
   </si>
+  <si>
+    <t xml:space="preserve">Concurrent : </t>
+  </si>
+  <si>
+    <t>HSTI + NW</t>
+  </si>
+  <si>
+    <t>CoCAP</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Concurrent</t>
+  </si>
+  <si>
+    <t>SSSP:1 + HSTI:10</t>
+  </si>
+  <si>
+    <t>SSSP:1 + HSTO:4</t>
+  </si>
+  <si>
+    <t>HSTI:10 + HSTO:4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +512,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,12 +557,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,19 +1190,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1300,19 +1341,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1451,19 +1492,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2006,34 +2047,34 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2054,11 +2095,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B292E8-9767-8E46-B24F-52C4CE39A8E7}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D73" sqref="D73"/>
+      <selection pane="topRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2403,9 +2444,9 @@
       <c r="B8" t="s">
         <v>116</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>0.80208333333333326</v>
+      <c r="C8" s="1">
+        <f>D7/D8</f>
+        <v>1.2</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
@@ -2720,7 +2761,7 @@
       <c r="B16" t="s">
         <v>117</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>D15/D16</f>
         <v>1.0679501698754246</v>
       </c>
@@ -2998,7 +3039,7 @@
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <f>D23/D24</f>
         <v>1.1299999999999999</v>
       </c>
@@ -3324,7 +3365,7 @@
       <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <f>D31/D32</f>
         <v>1.0410276073619633</v>
       </c>
@@ -3562,9 +3603,9 @@
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" si="26"/>
-        <v>0.98653525818989452</v>
+      <c r="C39" s="6">
+        <f>D39/D40</f>
+        <v>1.0261334103378574</v>
       </c>
       <c r="D39" s="1">
         <v>7107</v>
@@ -3750,9 +3791,9 @@
       <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" si="29"/>
-        <v>0.9428212378259504</v>
+      <c r="C46" s="6">
+        <f>D46/D47</f>
+        <v>1.0578075431794149</v>
       </c>
       <c r="D46">
         <v>3001</v>
@@ -4253,12 +4294,12 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -4279,8 +4320,16 @@
         <f>4.98*G66*3.6/1000</f>
         <v>54.232200000000006</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f>1000*D66/H66</f>
+        <v>22.076557358407047</v>
+      </c>
+      <c r="K66">
+        <f>J66/$J$67</f>
+        <v>1.3405357183289937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>124</v>
       </c>
@@ -4295,16 +4344,29 @@
         <v>3387</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H69" si="40">4.98*G67*3.6/1000</f>
+        <f t="shared" ref="H67:H81" si="40">4.98*G67*3.6/1000</f>
         <v>60.722136000000006</v>
       </c>
       <c r="I67" s="5">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(H67-H68)/H67</f>
+        <v>0.21169176262178921</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J69" si="41">1000*D67/H67</f>
+        <v>16.468458882935209</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K69" si="42">J67/$J$67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>125</v>
+      </c>
+      <c r="C68">
+        <f>D68/D69</f>
+        <v>1.1007812499999998</v>
       </c>
       <c r="D68">
         <f t="shared" si="39"/>
@@ -4320,8 +4382,16 @@
         <f t="shared" si="40"/>
         <v>47.867760000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" si="41"/>
+        <v>28.52911855495222</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="42"/>
+        <v>1.7323490168539324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>116</v>
       </c>
@@ -4338,6 +4408,353 @@
       <c r="H69">
         <f t="shared" si="40"/>
         <v>51.166512000000012</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="41"/>
+        <v>24.246252460880601</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="42"/>
+        <v>1.4722842394199267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f>C78/$C$81</f>
+        <v>1.1382113821138211</v>
+      </c>
+      <c r="E78">
+        <v>7.38</v>
+      </c>
+      <c r="F78">
+        <f>E78/$E$81</f>
+        <v>1.2508474576271185</v>
+      </c>
+      <c r="G78">
+        <v>2627</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="40"/>
+        <v>47.09685600000001</v>
+      </c>
+      <c r="I78">
+        <f>H78/$H$81</f>
+        <v>1.2557361376673042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79">
+        <v>6.7</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D81" si="43">C79/$C$81</f>
+        <v>1.089430894308943</v>
+      </c>
+      <c r="E79">
+        <v>6.8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F81" si="44">E79/$E$81</f>
+        <v>1.1525423728813557</v>
+      </c>
+      <c r="G79">
+        <v>2457</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="40"/>
+        <v>44.049096000000006</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I81" si="45">H79/$H$81</f>
+        <v>1.1744741873804971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80">
+        <v>6.57</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="43"/>
+        <v>1.0682926829268293</v>
+      </c>
+      <c r="E80">
+        <v>6.36</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="44"/>
+        <v>1.0779661016949151</v>
+      </c>
+      <c r="G80">
+        <v>2276</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="40"/>
+        <v>40.804128000000006</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="45"/>
+        <v>1.0879541108986617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81">
+        <v>6.15</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>5.9</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>2092</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="40"/>
+        <v>37.505376000000005</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>13.06</v>
+      </c>
+      <c r="E87">
+        <v>14.14</v>
+      </c>
+      <c r="G87">
+        <v>3955.98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88">
+        <v>13.8</v>
+      </c>
+      <c r="E88">
+        <v>14.4</v>
+      </c>
+      <c r="G88">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89">
+        <v>10.340999999999999</v>
+      </c>
+      <c r="E89">
+        <v>13.29</v>
+      </c>
+      <c r="G89">
+        <v>3676.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>21.219000000000001</v>
+      </c>
+      <c r="E95">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="G95">
+        <v>5789.28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96">
+        <v>19.39</v>
+      </c>
+      <c r="E96">
+        <v>15.3</v>
+      </c>
+      <c r="G96">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="E97">
+        <v>14.9</v>
+      </c>
+      <c r="G97">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>25.384</v>
+      </c>
+      <c r="E103">
+        <v>23.402000000000001</v>
+      </c>
+      <c r="G103">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104">
+        <v>24.417000000000002</v>
+      </c>
+      <c r="E104">
+        <v>21.798999999999999</v>
+      </c>
+      <c r="G104">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105">
+        <v>22.64</v>
+      </c>
+      <c r="E105">
+        <v>21</v>
+      </c>
+      <c r="G105" s="9">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="9">
+        <v>23.988</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>21.777999999999999</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9">
+        <v>7104</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Perf_Energy.xlsx
+++ b/Data_Perf_Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmukherjee/UIUC/Efficient_DVFS/osldvfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A26571-C869-034C-890A-0A40CBC51B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C3EC4C-DD69-C74E-AC2D-985AB1BE3557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
+    <workbookView xWindow="42480" yWindow="2720" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{C375F459-613A-E64E-A7C0-D28A192B58C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark--Perf--Energy" sheetId="1" r:id="rId1"/>
@@ -558,13 +558,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,19 +1190,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1341,19 +1341,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1492,19 +1492,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2047,34 +2047,34 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2097,9 +2097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B292E8-9767-8E46-B24F-52C4CE39A8E7}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H89" sqref="H89"/>
+      <selection pane="topRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2444,9 +2444,9 @@
       <c r="B8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="1">
-        <f>D7/D8</f>
-        <v>1.2</v>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.80208333333333326</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
@@ -4344,7 +4344,7 @@
         <v>3387</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H81" si="40">4.98*G67*3.6/1000</f>
+        <f t="shared" ref="H67:H106" si="40">4.98*G67*3.6/1000</f>
         <v>60.722136000000006</v>
       </c>
       <c r="I67" s="5">
@@ -4447,15 +4447,15 @@
         <v>7</v>
       </c>
       <c r="D78">
-        <f>C78/$C$81</f>
-        <v>1.1382113821138211</v>
+        <f>$C$78/C78</f>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>7.38</v>
       </c>
       <c r="F78">
-        <f>E78/$E$81</f>
-        <v>1.2508474576271185</v>
+        <f>$E$78/E78</f>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>2627</v>
@@ -4465,8 +4465,12 @@
         <v>47.09685600000001</v>
       </c>
       <c r="I78">
-        <f>H78/$H$81</f>
-        <v>1.2557361376673042</v>
+        <f>$H$78/H78</f>
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" ref="K78:K102" si="43">MAX(D78,F78)*I78</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4477,15 +4481,15 @@
         <v>6.7</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D81" si="43">C79/$C$81</f>
-        <v>1.089430894308943</v>
+        <f t="shared" ref="D79:D81" si="44">$C$78/C79</f>
+        <v>1.044776119402985</v>
       </c>
       <c r="E79">
         <v>6.8</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F81" si="44">E79/$E$81</f>
-        <v>1.1525423728813557</v>
+        <f t="shared" ref="F79:F81" si="45">$E$78/E79</f>
+        <v>1.0852941176470587</v>
       </c>
       <c r="G79">
         <v>2457</v>
@@ -4495,8 +4499,12 @@
         <v>44.049096000000006</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79:I81" si="45">H79/$H$81</f>
-        <v>1.1744741873804971</v>
+        <f t="shared" ref="I79:I81" si="46">$H$78/H79</f>
+        <v>1.0691900691900693</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="43"/>
+        <v>1.160385692738634</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4507,15 +4515,15 @@
         <v>6.57</v>
       </c>
       <c r="D80">
-        <f t="shared" si="43"/>
-        <v>1.0682926829268293</v>
+        <f t="shared" si="44"/>
+        <v>1.06544901065449</v>
       </c>
       <c r="E80">
         <v>6.36</v>
       </c>
       <c r="F80">
-        <f t="shared" si="44"/>
-        <v>1.0779661016949151</v>
+        <f t="shared" si="45"/>
+        <v>1.1603773584905659</v>
       </c>
       <c r="G80">
         <v>2276</v>
@@ -4525,11 +4533,15 @@
         <v>40.804128000000006</v>
       </c>
       <c r="I80">
-        <f t="shared" si="45"/>
-        <v>1.0879541108986617</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="46"/>
+        <v>1.1542179261862917</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="43"/>
+        <v>1.3393283483105081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>125</v>
       </c>
@@ -4537,15 +4549,15 @@
         <v>6.15</v>
       </c>
       <c r="D81">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="44"/>
+        <v>1.1382113821138211</v>
       </c>
       <c r="E81">
         <v>5.9</v>
       </c>
       <c r="F81">
-        <f t="shared" si="44"/>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v>1.2508474576271185</v>
       </c>
       <c r="G81">
         <v>2092</v>
@@ -4555,74 +4567,184 @@
         <v>37.505376000000005</v>
       </c>
       <c r="I81">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="46"/>
+        <v>1.2557361376673042</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="43"/>
+        <v>1.5707343552516446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>132</v>
       </c>
       <c r="B85" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="E86" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>101</v>
       </c>
       <c r="C87">
         <v>13.06</v>
       </c>
+      <c r="D87">
+        <f>$C$87/C87</f>
+        <v>1</v>
+      </c>
       <c r="E87">
         <v>14.14</v>
       </c>
+      <c r="F87">
+        <f>$E$87/E87</f>
+        <v>1</v>
+      </c>
       <c r="G87">
         <v>3955.98</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <f t="shared" si="40"/>
+        <v>70.922809440000009</v>
+      </c>
+      <c r="I87">
+        <f>$H$87/H87</f>
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>123</v>
       </c>
       <c r="C88">
         <v>13.8</v>
       </c>
+      <c r="D88">
+        <f t="shared" ref="D88:D89" si="47">$C$87/C88</f>
+        <v>0.94637681159420284</v>
+      </c>
       <c r="E88">
         <v>14.4</v>
       </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F89" si="48">$E$87/E88</f>
+        <v>0.98194444444444451</v>
+      </c>
       <c r="G88">
         <v>3692</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f t="shared" si="40"/>
+        <v>66.190176000000008</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88:I89" si="49">$H$87/H88</f>
+        <v>1.0715005417118093</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="43"/>
+        <v>1.0521540041531239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>125</v>
       </c>
       <c r="C89">
         <v>10.340999999999999</v>
       </c>
+      <c r="D89">
+        <f t="shared" si="47"/>
+        <v>1.2629339522289915</v>
+      </c>
       <c r="E89">
         <v>13.29</v>
       </c>
+      <c r="F89">
+        <f t="shared" si="48"/>
+        <v>1.0639578630549287</v>
+      </c>
       <c r="G89">
         <v>3676.27</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f t="shared" si="40"/>
+        <v>65.908168560000007</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="49"/>
+        <v>1.0760852712123974</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="43"/>
+        <v>1.3590246245076794</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <f>$C$87/C90</f>
+        <v>1.1872727272727273</v>
+      </c>
+      <c r="E90">
+        <v>13.93</v>
+      </c>
+      <c r="F90">
+        <f>$E$87/E90</f>
+        <v>1.0150753768844221</v>
+      </c>
+      <c r="G90">
+        <v>3893.87</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="40"/>
+        <v>69.809301360000006</v>
+      </c>
+      <c r="I90">
+        <f>$H$87/H90</f>
+        <v>1.015950712273394</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="43"/>
+        <v>1.2062105729355022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -4635,126 +4757,305 @@
       <c r="E93" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>101</v>
       </c>
       <c r="C95">
         <v>21.219000000000001</v>
       </c>
+      <c r="D95">
+        <f>$C$95/C95</f>
+        <v>1</v>
+      </c>
       <c r="E95">
         <v>16.338000000000001</v>
       </c>
+      <c r="F95">
+        <f>$E$95/E95</f>
+        <v>1</v>
+      </c>
       <c r="G95">
         <v>5789.28</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <f t="shared" si="40"/>
+        <v>103.79021184</v>
+      </c>
+      <c r="I95">
+        <f>$H$95/H95</f>
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>123</v>
       </c>
       <c r="C96">
         <v>19.39</v>
       </c>
+      <c r="D96">
+        <f t="shared" ref="D96:D97" si="50">$C$95/C96</f>
+        <v>1.094326972666323</v>
+      </c>
       <c r="E96">
         <v>15.3</v>
       </c>
+      <c r="F96">
+        <f t="shared" ref="F96:F97" si="51">$E$95/E96</f>
+        <v>1.067843137254902</v>
+      </c>
       <c r="G96">
         <v>5721</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <f t="shared" si="40"/>
+        <v>102.56608800000001</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96:I97" si="52">$H$95/H96</f>
+        <v>1.0119349764027268</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="43"/>
+        <v>1.1073877392619629</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>125</v>
       </c>
       <c r="C97">
         <v>16.670000000000002</v>
       </c>
+      <c r="D97">
+        <f t="shared" si="50"/>
+        <v>1.272885422915417</v>
+      </c>
       <c r="E97">
         <v>14.9</v>
       </c>
+      <c r="F97">
+        <f t="shared" si="51"/>
+        <v>1.0965100671140939</v>
+      </c>
       <c r="G97">
         <v>5712</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <f t="shared" si="40"/>
+        <v>102.404736</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="52"/>
+        <v>1.0135294117647058</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="43"/>
+        <v>1.2901068139313312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>17.73</v>
+      </c>
+      <c r="D98">
+        <f>$C$95/C98</f>
+        <v>1.1967851099830795</v>
+      </c>
+      <c r="E98">
+        <v>15.45</v>
+      </c>
+      <c r="F98">
+        <f>$E$95/E98</f>
+        <v>1.05747572815534</v>
+      </c>
+      <c r="G98">
+        <v>5738</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="40"/>
+        <v>102.870864</v>
+      </c>
+      <c r="I98">
+        <f>$H$95/H98</f>
+        <v>1.0089369118159637</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="43"/>
+        <v>1.2074806729736567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>132</v>
       </c>
       <c r="B101" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>101</v>
       </c>
       <c r="C103">
         <v>25.384</v>
       </c>
+      <c r="D103">
+        <f>$C$103/C103</f>
+        <v>1</v>
+      </c>
       <c r="E103">
         <v>23.402000000000001</v>
       </c>
+      <c r="F103">
+        <f>$E$103/E103</f>
+        <v>1</v>
+      </c>
       <c r="G103">
         <v>7145</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f t="shared" si="40"/>
+        <v>128.09556000000003</v>
+      </c>
+      <c r="I103">
+        <f>$H$103/H103</f>
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <f>MAX(D103,F103)*I103</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>123</v>
       </c>
       <c r="C104">
         <v>24.417000000000002</v>
       </c>
+      <c r="D104">
+        <f t="shared" ref="D104:D106" si="53">$C$103/C104</f>
+        <v>1.0396035549002745</v>
+      </c>
       <c r="E104">
         <v>21.798999999999999</v>
       </c>
+      <c r="F104">
+        <f t="shared" ref="F104:F106" si="54">$E$103/E104</f>
+        <v>1.0735354832790496</v>
+      </c>
       <c r="G104">
         <v>6728</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <f t="shared" si="40"/>
+        <v>120.61958400000002</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ref="I104:I106" si="55">$H$103/H104</f>
+        <v>1.0619797859690845</v>
+      </c>
+      <c r="K104" s="1">
+        <f>MAX(D104,F104)*I104</f>
+        <v>1.1400729827629028</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>125</v>
       </c>
       <c r="C105">
         <v>22.64</v>
       </c>
+      <c r="D105">
+        <f t="shared" si="53"/>
+        <v>1.1212014134275619</v>
+      </c>
       <c r="E105">
         <v>21</v>
       </c>
-      <c r="G105" s="9">
+      <c r="F105">
+        <f t="shared" si="54"/>
+        <v>1.1143809523809525</v>
+      </c>
+      <c r="G105" s="7">
         <v>6894</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <f t="shared" si="40"/>
+        <v>123.59563200000001</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="55"/>
+        <v>1.03640847113432</v>
+      </c>
+      <c r="K105" s="1">
+        <f>MAX(D105,F105)*I105</f>
+        <v>1.1620226427240981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="7">
         <v>23.988</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9">
+      <c r="D106">
+        <f t="shared" si="53"/>
+        <v>1.0581957645489413</v>
+      </c>
+      <c r="E106" s="7">
         <v>21.777999999999999</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9">
+      <c r="F106">
+        <f t="shared" si="54"/>
+        <v>1.0745706676462485</v>
+      </c>
+      <c r="G106" s="7">
         <v>7104</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="40"/>
+        <v>127.36051200000001</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="55"/>
+        <v>1.0057713963963966</v>
+      </c>
+      <c r="K106" s="1">
+        <f>MAX(D106,F106)*I106</f>
+        <v>1.0807724409251755</v>
       </c>
     </row>
   </sheetData>
